--- a/lab1handout/Lab1.xlsx
+++ b/lab1handout/Lab1.xlsx
@@ -16,6 +16,101 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>512-8-1</t>
+  </si>
+  <si>
+    <t>1024-4-1</t>
+  </si>
+  <si>
+    <t>512-4-2</t>
+  </si>
+  <si>
+    <t>512-4-1</t>
+  </si>
+  <si>
+    <t>512-16-1</t>
+  </si>
+  <si>
+    <t>512-32-1</t>
+  </si>
+  <si>
+    <t>512-64-1</t>
+  </si>
+  <si>
+    <t>512-128-1</t>
+  </si>
+  <si>
+    <t>512-256-1</t>
+  </si>
+  <si>
+    <t>512-512-1</t>
+  </si>
+  <si>
+    <t>Unaligned Reads</t>
+  </si>
+  <si>
+    <t>Unaligned Writes</t>
+  </si>
+  <si>
+    <t>Unaligned Read (%)</t>
+  </si>
+  <si>
+    <t>Unaligned Write (%)</t>
+  </si>
+  <si>
+    <t>Average:</t>
+  </si>
+  <si>
+    <t>Stddev:</t>
+  </si>
+  <si>
+    <t>Total Reads</t>
+  </si>
+  <si>
+    <t>Total Writes</t>
+  </si>
+  <si>
+    <t>Read Hits</t>
+  </si>
+  <si>
+    <t>Write Hits</t>
+  </si>
+  <si>
+    <t>Read Hit Rate</t>
+  </si>
+  <si>
+    <t>Write Hit Rate</t>
+  </si>
+  <si>
+    <t>512-4-8</t>
+  </si>
+  <si>
+    <t>512-4-4</t>
+  </si>
+  <si>
+    <t>512-4-16</t>
+  </si>
+  <si>
+    <t>512-4-32</t>
+  </si>
+  <si>
+    <t>2048 2 1</t>
+  </si>
+  <si>
+    <t>4096 2 1</t>
+  </si>
+  <si>
+    <t>8192 2 1</t>
+  </si>
+  <si>
+    <t>16384 2 1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,12 +140,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +519,5101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="F238" sqref="F238:J248"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B4">
+        <v>33395688</v>
+      </c>
+      <c r="C4">
+        <v>61357359</v>
+      </c>
+      <c r="D4">
+        <v>29799720</v>
+      </c>
+      <c r="F4">
+        <f>C4/A4</f>
+        <v>0.85389761825094901</v>
+      </c>
+      <c r="G4">
+        <f>D4/B4</f>
+        <v>0.89232238605175618</v>
+      </c>
+      <c r="M4" s="6">
+        <v>184206</v>
+      </c>
+      <c r="N4" s="7">
+        <v>59046</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7">
+        <f>(M4/A4)*100</f>
+        <v>0.25635566333214294</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>(N4/B4)*100</f>
+        <v>0.17680725727225621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>356976764</v>
+      </c>
+      <c r="B5">
+        <v>172533520</v>
+      </c>
+      <c r="C5">
+        <v>232189007</v>
+      </c>
+      <c r="D5">
+        <v>149421218</v>
+      </c>
+      <c r="F5">
+        <f>C5/A5</f>
+        <v>0.65043170989134746</v>
+      </c>
+      <c r="G5">
+        <f>D5/B5</f>
+        <v>0.86604167120684727</v>
+      </c>
+      <c r="M5" s="9">
+        <v>312969</v>
+      </c>
+      <c r="N5" s="7">
+        <v>230489</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
+        <f t="shared" ref="P5:P14" si="0">(M5/A5)*100</f>
+        <v>8.7672092853640179E-2</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" ref="Q5:Q14" si="1">(N5/B5)*100</f>
+        <v>0.1335908523746574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1785763181</v>
+      </c>
+      <c r="B6">
+        <v>1371613584</v>
+      </c>
+      <c r="C6">
+        <v>1546207510</v>
+      </c>
+      <c r="D6">
+        <v>1302766902</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F69" si="2">C6/A6</f>
+        <v>0.86585249738106229</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G69" si="3">D6/B6</f>
+        <v>0.94980606578769489</v>
+      </c>
+      <c r="M6" s="9">
+        <v>964144592</v>
+      </c>
+      <c r="N6" s="7">
+        <v>827442077</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7">
+        <f t="shared" si="0"/>
+        <v>53.990618815429592</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="1"/>
+        <v>60.326179811295887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>354122019</v>
+      </c>
+      <c r="B7">
+        <v>185094404</v>
+      </c>
+      <c r="C7">
+        <v>267647040</v>
+      </c>
+      <c r="D7">
+        <v>168150021</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.75580456915897121</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0.90845545497961133</v>
+      </c>
+      <c r="M7" s="9">
+        <v>26907803</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4809674</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7">
+        <f t="shared" si="0"/>
+        <v>7.5984552093045652</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="1"/>
+        <v>2.5984977914297183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B8">
+        <v>335851228</v>
+      </c>
+      <c r="C8">
+        <v>503233218</v>
+      </c>
+      <c r="D8">
+        <v>259709413</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0.59010933569150414</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.77328707281070297</v>
+      </c>
+      <c r="M8" s="9">
+        <v>83856985</v>
+      </c>
+      <c r="N8" s="7">
+        <v>30808299</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7">
+        <f t="shared" si="0"/>
+        <v>9.8333710775512486</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="1"/>
+        <v>9.1731982590815484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>199921067</v>
+      </c>
+      <c r="B9">
+        <v>85956070</v>
+      </c>
+      <c r="C9">
+        <v>151336955</v>
+      </c>
+      <c r="D9">
+        <v>78273427</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.75698352990482987</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0.91062128596619185</v>
+      </c>
+      <c r="M9" s="9">
+        <v>5883498</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1305539</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9429104637581789</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="1"/>
+        <v>1.5188444515902133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>224893587</v>
+      </c>
+      <c r="B10">
+        <v>101662948</v>
+      </c>
+      <c r="C10">
+        <v>141117059</v>
+      </c>
+      <c r="D10">
+        <v>83945493</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.62748369521092662</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0.8257235763023516</v>
+      </c>
+      <c r="M10" s="9">
+        <v>22511959</v>
+      </c>
+      <c r="N10" s="7">
+        <v>6656421</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7">
+        <f t="shared" si="0"/>
+        <v>10.010049330575175</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="1"/>
+        <v>6.5475388339122338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>500840583</v>
+      </c>
+      <c r="B11">
+        <v>255219001</v>
+      </c>
+      <c r="C11">
+        <v>352450224</v>
+      </c>
+      <c r="D11">
+        <v>214047634</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.70371738226332992</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0.83868220297594531</v>
+      </c>
+      <c r="M11" s="9">
+        <v>96001639</v>
+      </c>
+      <c r="N11" s="7">
+        <v>35418545</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7">
+        <f t="shared" si="0"/>
+        <v>19.168103036889882</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="1"/>
+        <v>13.877706934524047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>607787062</v>
+      </c>
+      <c r="B12">
+        <v>406689968</v>
+      </c>
+      <c r="C12">
+        <v>492319916</v>
+      </c>
+      <c r="D12">
+        <v>363323979</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.81002039493891032</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0.89336843194519122</v>
+      </c>
+      <c r="M12" s="9">
+        <v>29964267</v>
+      </c>
+      <c r="N12" s="7">
+        <v>37169273</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9300600281616394</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" si="1"/>
+        <v>9.1394614877739002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>711411552</v>
+      </c>
+      <c r="B13">
+        <v>341365461</v>
+      </c>
+      <c r="C13">
+        <v>527847922</v>
+      </c>
+      <c r="D13">
+        <v>308375501</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.74197266057327105</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0.90335882281892599</v>
+      </c>
+      <c r="M13" s="9">
+        <v>69760010</v>
+      </c>
+      <c r="N13" s="7">
+        <v>6123969</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7">
+        <f t="shared" si="0"/>
+        <v>9.8058584800714623</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7939626879826605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>125439069</v>
+      </c>
+      <c r="B14">
+        <v>40666094</v>
+      </c>
+      <c r="C14">
+        <v>84879880</v>
+      </c>
+      <c r="D14">
+        <v>28941214</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.67666222873513193</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0.7116792185647336</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(F4:F14)</f>
+        <v>0.73026687472729401</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGE(G4:G14)</f>
+        <v>0.86121328994635926</v>
+      </c>
+      <c r="M14" s="9">
+        <v>19227</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3510</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5327760444395518E-2</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="1"/>
+        <v>8.6312690862318867E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="7">
+        <f>AVERAGE(P4:P14)</f>
+        <v>10.785343814397448</v>
+      </c>
+      <c r="Q16" s="8">
+        <f>AVERAGE(Q4:Q14)</f>
+        <v>9.5722199669384853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B17">
+        <v>33395688</v>
+      </c>
+      <c r="C17">
+        <v>54195731</v>
+      </c>
+      <c r="D17">
+        <v>27702825</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.75423072919858103</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0.82953299240309109</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="11">
+        <f>_xlfn.STDEV.S(P4:P14)</f>
+        <v>15.448852872796229</v>
+      </c>
+      <c r="Q17" s="12">
+        <f>_xlfn.STDEV.S(Q4:Q14)</f>
+        <v>17.455118231884789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>356976764</v>
+      </c>
+      <c r="B18">
+        <v>172533520</v>
+      </c>
+      <c r="C18">
+        <v>221235084</v>
+      </c>
+      <c r="D18">
+        <v>136359748</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.6197464549821512</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0.7903377152451303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1785763181</v>
+      </c>
+      <c r="B19">
+        <v>1371613584</v>
+      </c>
+      <c r="C19">
+        <v>1442582740</v>
+      </c>
+      <c r="D19">
+        <v>1284741791</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.80782421507435032</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0.93666452854261029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>354122019</v>
+      </c>
+      <c r="B20">
+        <v>185091078</v>
+      </c>
+      <c r="C20">
+        <v>240753760</v>
+      </c>
+      <c r="D20">
+        <v>162280450</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.6798610283536195</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0.87675998083494877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B21">
+        <v>335851228</v>
+      </c>
+      <c r="C21">
+        <v>480911311</v>
+      </c>
+      <c r="D21">
+        <v>257240551</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0.56393386626703235</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>0.76593601438313041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>199921067</v>
+      </c>
+      <c r="B22">
+        <v>85956070</v>
+      </c>
+      <c r="C22">
+        <v>137154368</v>
+      </c>
+      <c r="D22">
+        <v>75957737</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0.68604259700154557</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>0.8836808965323798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>224893587</v>
+      </c>
+      <c r="B23">
+        <v>101662948</v>
+      </c>
+      <c r="C23">
+        <v>113606420</v>
+      </c>
+      <c r="D23">
+        <v>75630126</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0.5051563342266403</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>0.74393008945599337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>500840583</v>
+      </c>
+      <c r="B24">
+        <v>255219001</v>
+      </c>
+      <c r="C24">
+        <v>252748629</v>
+      </c>
+      <c r="D24">
+        <v>158100677</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>0.50464885949547744</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0.61947063651424605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>607787062</v>
+      </c>
+      <c r="B25">
+        <v>406689968</v>
+      </c>
+      <c r="C25">
+        <v>478264797</v>
+      </c>
+      <c r="D25">
+        <v>335586458</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0.78689532387578198</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0.82516532101917994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>711411552</v>
+      </c>
+      <c r="B26">
+        <v>341365105</v>
+      </c>
+      <c r="C26">
+        <v>473052707</v>
+      </c>
+      <c r="D26">
+        <v>292000122</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0.66494943140872698</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.85538948686626892</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>125439069</v>
+      </c>
+      <c r="B27">
+        <v>40666094</v>
+      </c>
+      <c r="C27">
+        <v>63919376</v>
+      </c>
+      <c r="D27">
+        <v>26132940</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>0.50956513396954506</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0.64262232807507891</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(F17:F27)</f>
+        <v>0.64389581580485922</v>
+      </c>
+      <c r="J27">
+        <f>AVERAGE(G17:G27)</f>
+        <v>0.79722636271564185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B30">
+        <v>33395688</v>
+      </c>
+      <c r="C30">
+        <v>64493640</v>
+      </c>
+      <c r="D30">
+        <v>32017592</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>0.89754458936757908</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0.95873431324427272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>356976764</v>
+      </c>
+      <c r="B31">
+        <v>172533520</v>
+      </c>
+      <c r="C31">
+        <v>282392225</v>
+      </c>
+      <c r="D31">
+        <v>159525543</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0.791066123844408</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0.92460608813869904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1785763181</v>
+      </c>
+      <c r="B32">
+        <v>1371613584</v>
+      </c>
+      <c r="C32">
+        <v>1605976817</v>
+      </c>
+      <c r="D32">
+        <v>1331605253</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0.89932239284980531</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0.97083119366365211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>354122019</v>
+      </c>
+      <c r="B33">
+        <v>185073230</v>
+      </c>
+      <c r="C33">
+        <v>287686106</v>
+      </c>
+      <c r="D33">
+        <v>174531558</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0.81239259510716844</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>0.94304053590030279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B34">
+        <v>335851228</v>
+      </c>
+      <c r="C34">
+        <v>574867002</v>
+      </c>
+      <c r="D34">
+        <v>298397191</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0.67410968220541156</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>0.88848027377169514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>199921067</v>
+      </c>
+      <c r="B35">
+        <v>85956070</v>
+      </c>
+      <c r="C35">
+        <v>163851454</v>
+      </c>
+      <c r="D35">
+        <v>81184559</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0.81958072982873786</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>0.94448895813873301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>224893587</v>
+      </c>
+      <c r="B36">
+        <v>101662948</v>
+      </c>
+      <c r="C36">
+        <v>156192915</v>
+      </c>
+      <c r="D36">
+        <v>90250342</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.6945192038757424</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>0.88774075290439147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>500840583</v>
+      </c>
+      <c r="B37">
+        <v>255219001</v>
+      </c>
+      <c r="C37">
+        <v>382980718</v>
+      </c>
+      <c r="D37">
+        <v>220686751</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0.76467588889457072</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0.86469561488488078</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>607787062</v>
+      </c>
+      <c r="B38">
+        <v>406689967</v>
+      </c>
+      <c r="C38">
+        <v>508781843</v>
+      </c>
+      <c r="D38">
+        <v>361604085</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0.83710541867375254</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0.88913942890555742</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>711411552</v>
+      </c>
+      <c r="B39">
+        <v>341365246</v>
+      </c>
+      <c r="C39">
+        <v>587289655</v>
+      </c>
+      <c r="D39">
+        <v>328498222</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0.82552729618874676</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0.9623071646842456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>125439069</v>
+      </c>
+      <c r="B40">
+        <v>40666094</v>
+      </c>
+      <c r="C40">
+        <v>90038854</v>
+      </c>
+      <c r="D40">
+        <v>30185515</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>0.71778955884948414</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0.74227721501848687</v>
+      </c>
+      <c r="I40">
+        <f>AVERAGE(F30:F40)</f>
+        <v>0.79396667997140069</v>
+      </c>
+      <c r="J40">
+        <f>AVERAGE(G30:G40)</f>
+        <v>0.90694013993226508</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B43">
+        <v>33395688</v>
+      </c>
+      <c r="C43">
+        <v>53140269</v>
+      </c>
+      <c r="D43">
+        <v>26742231</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>0.73954208381613584</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>0.80076897951615789</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>356976764</v>
+      </c>
+      <c r="B44">
+        <v>172533520</v>
+      </c>
+      <c r="C44">
+        <v>214890394</v>
+      </c>
+      <c r="D44">
+        <v>134267995</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>0.60197305727159323</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>0.77821396677005139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1785763181</v>
+      </c>
+      <c r="B45">
+        <v>1371613584</v>
+      </c>
+      <c r="C45">
+        <v>1437647761</v>
+      </c>
+      <c r="D45">
+        <v>1284470003</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>0.80506070250308293</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>0.93646637652430831</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>354122019</v>
+      </c>
+      <c r="B46">
+        <v>185082429</v>
+      </c>
+      <c r="C46">
+        <v>232586696</v>
+      </c>
+      <c r="D46">
+        <v>158141121</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>0.65679817554637854</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>0.85443616584478688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B47">
+        <v>335851228</v>
+      </c>
+      <c r="C47">
+        <v>464762351</v>
+      </c>
+      <c r="D47">
+        <v>260377682</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>0.54499701608138207</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>0.77527684966511423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>199921067</v>
+      </c>
+      <c r="B48">
+        <v>85956070</v>
+      </c>
+      <c r="C48">
+        <v>129344310</v>
+      </c>
+      <c r="D48">
+        <v>75536225</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>0.64697688913395002</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>0.87877708927362552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>224893587</v>
+      </c>
+      <c r="B49">
+        <v>101662948</v>
+      </c>
+      <c r="C49">
+        <v>106829428</v>
+      </c>
+      <c r="D49">
+        <v>73711030</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>0.4750221179050339</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>0.72505304489104527</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>500840583</v>
+      </c>
+      <c r="B50">
+        <v>255219001</v>
+      </c>
+      <c r="C50">
+        <v>284998601</v>
+      </c>
+      <c r="D50">
+        <v>177594253</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>0.56904055037408974</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>0.69585043552458703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>607787062</v>
+      </c>
+      <c r="B51">
+        <v>406689967</v>
+      </c>
+      <c r="C51">
+        <v>427244270</v>
+      </c>
+      <c r="D51">
+        <v>321037702</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>0.70295058370294827</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>0.78939174321947314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>711411552</v>
+      </c>
+      <c r="B52">
+        <v>341365721</v>
+      </c>
+      <c r="C52">
+        <v>465520788</v>
+      </c>
+      <c r="D52">
+        <v>289823743</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>0.65436214339122789</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>0.84901243789501646</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>125439069</v>
+      </c>
+      <c r="B53">
+        <v>40666094</v>
+      </c>
+      <c r="C53">
+        <v>65432327</v>
+      </c>
+      <c r="D53">
+        <v>24172793</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>0.52162637622892438</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>0.59442131324439473</v>
+      </c>
+      <c r="I53">
+        <f>AVERAGE(F43:F53)</f>
+        <v>0.62894088145043159</v>
+      </c>
+      <c r="J53">
+        <f>AVERAGE(G43:G53)</f>
+        <v>0.78887894566986916</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>54149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B56">
+        <v>33395688</v>
+      </c>
+      <c r="C56">
+        <v>55058183</v>
+      </c>
+      <c r="D56">
+        <v>28054376</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>0.76623329450873023</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>0.84005983047871335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>356976764</v>
+      </c>
+      <c r="B57">
+        <v>172533520</v>
+      </c>
+      <c r="C57">
+        <v>239058660</v>
+      </c>
+      <c r="D57">
+        <v>135349367</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>0.6696756879111605</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>0.78448157204466706</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1785763181</v>
+      </c>
+      <c r="B58">
+        <v>1371613584</v>
+      </c>
+      <c r="C58">
+        <v>1481225670</v>
+      </c>
+      <c r="D58">
+        <v>1292717700</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>0.82946366335682675</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>0.94247951105156158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>354122019</v>
+      </c>
+      <c r="B59">
+        <v>185104479</v>
+      </c>
+      <c r="C59">
+        <v>246919414</v>
+      </c>
+      <c r="D59">
+        <v>163489275</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>0.69727212867833555</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="3"/>
+        <v>0.88322700716496438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B60">
+        <v>335851228</v>
+      </c>
+      <c r="C60">
+        <v>465687770</v>
+      </c>
+      <c r="D60">
+        <v>273541092</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>0.54608219561999971</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>0.81447101929310195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>199921067</v>
+      </c>
+      <c r="B61">
+        <v>85956070</v>
+      </c>
+      <c r="C61">
+        <v>134297705</v>
+      </c>
+      <c r="D61">
+        <v>75456375</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>0.67175364265137705</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="3"/>
+        <v>0.87784812637432119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>224893587</v>
+      </c>
+      <c r="B62">
+        <v>101662948</v>
+      </c>
+      <c r="C62">
+        <v>120245852</v>
+      </c>
+      <c r="D62">
+        <v>74024314</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>0.53467888348456993</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="3"/>
+        <v>0.72813463957389868</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>500840583</v>
+      </c>
+      <c r="B63">
+        <v>255219001</v>
+      </c>
+      <c r="C63">
+        <v>292782572</v>
+      </c>
+      <c r="D63">
+        <v>187045143</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>0.5845823640054344</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="3"/>
+        <v>0.73288094643078705</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>607787062</v>
+      </c>
+      <c r="B64">
+        <v>406689968</v>
+      </c>
+      <c r="C64">
+        <v>515481756</v>
+      </c>
+      <c r="D64">
+        <v>336783161</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>0.84812887313484797</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="3"/>
+        <v>0.82810786471133213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>711411552</v>
+      </c>
+      <c r="B65">
+        <v>341365771</v>
+      </c>
+      <c r="C65">
+        <v>490290933</v>
+      </c>
+      <c r="D65">
+        <v>292100016</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>0.68918044923734945</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="3"/>
+        <v>0.85568044840676194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>125439069</v>
+      </c>
+      <c r="B66">
+        <v>40666094</v>
+      </c>
+      <c r="C66">
+        <v>64562984</v>
+      </c>
+      <c r="D66">
+        <v>26209239</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>0.51469597562143898</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="3"/>
+        <v>0.64449855941413992</v>
+      </c>
+      <c r="I66">
+        <f>AVERAGE(F56:F66)</f>
+        <v>0.66834065074637006</v>
+      </c>
+      <c r="J66">
+        <f>AVERAGE(G56:G66)</f>
+        <v>0.81198813863129538</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B69">
+        <v>33395688</v>
+      </c>
+      <c r="C69">
+        <v>66457224</v>
+      </c>
+      <c r="D69">
+        <v>31593403</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>0.92487137996226021</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>0.94603240394388644</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>356976764</v>
+      </c>
+      <c r="B70">
+        <v>172533520</v>
+      </c>
+      <c r="C70">
+        <v>279474409</v>
+      </c>
+      <c r="D70">
+        <v>158966107</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ref="F70:F118" si="4">C70/A70</f>
+        <v>0.78289243778342954</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ref="G70:G118" si="5">D70/B70</f>
+        <v>0.92136361096672692</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1785763181</v>
+      </c>
+      <c r="B71">
+        <v>1371613584</v>
+      </c>
+      <c r="C71">
+        <v>1620043490</v>
+      </c>
+      <c r="D71">
+        <v>1321243782</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>0.90719951404351418</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>0.96327697349489072</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>354122019</v>
+      </c>
+      <c r="B72">
+        <v>185104479</v>
+      </c>
+      <c r="C72">
+        <v>296636677</v>
+      </c>
+      <c r="D72">
+        <v>174240704</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>0.83766798189411651</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>0.94131003712773476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B73">
+        <v>335851228</v>
+      </c>
+      <c r="C73">
+        <v>556120760</v>
+      </c>
+      <c r="D73">
+        <v>271317648</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>0.65212716591346798</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>0.80785069512980912</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>199921067</v>
+      </c>
+      <c r="B74">
+        <v>85956070</v>
+      </c>
+      <c r="C74">
+        <v>175054989</v>
+      </c>
+      <c r="D74">
+        <v>83263647</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>0.87562052177322558</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>0.96867675546357579</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>224893587</v>
+      </c>
+      <c r="B75">
+        <v>101662948</v>
+      </c>
+      <c r="C75">
+        <v>172717231</v>
+      </c>
+      <c r="D75">
+        <v>92368018</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="4"/>
+        <v>0.76799535862265378</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>0.90857111481756359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>500840583</v>
+      </c>
+      <c r="B76">
+        <v>255219001</v>
+      </c>
+      <c r="C76">
+        <v>390811210</v>
+      </c>
+      <c r="D76">
+        <v>218392196</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="4"/>
+        <v>0.78031058836939338</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>0.8557050812999617</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>607787062</v>
+      </c>
+      <c r="B77">
+        <v>406689968</v>
+      </c>
+      <c r="C77">
+        <v>561660023</v>
+      </c>
+      <c r="D77">
+        <v>368739228</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="4"/>
+        <v>0.9241065796165302</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>0.90668385505884919</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>711411552</v>
+      </c>
+      <c r="B78">
+        <v>341365771</v>
+      </c>
+      <c r="C78">
+        <v>592299469</v>
+      </c>
+      <c r="D78">
+        <v>326477490</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="4"/>
+        <v>0.83256937188447566</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>0.95638613398060934</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>125439069</v>
+      </c>
+      <c r="B79">
+        <v>40666094</v>
+      </c>
+      <c r="C79">
+        <v>97745312</v>
+      </c>
+      <c r="D79">
+        <v>34061772</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="4"/>
+        <v>0.77922542617085266</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>0.83759635238142127</v>
+      </c>
+      <c r="I79">
+        <f>AVERAGE(F69:F79)</f>
+        <v>0.82405330236672014</v>
+      </c>
+      <c r="J79">
+        <f>AVERAGE(G69:G79)</f>
+        <v>0.91031391033318454</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B82">
+        <v>33395688</v>
+      </c>
+      <c r="C82">
+        <v>68729797</v>
+      </c>
+      <c r="D82">
+        <v>32358317</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="4"/>
+        <v>0.95649830627767429</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>0.96893697773197551</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>356976764</v>
+      </c>
+      <c r="B83">
+        <v>172533520</v>
+      </c>
+      <c r="C83">
+        <v>302562739</v>
+      </c>
+      <c r="D83">
+        <v>163890634</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="4"/>
+        <v>0.84756984070817565</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>0.94990604724229821</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1785763181</v>
+      </c>
+      <c r="B84">
+        <v>1371613584</v>
+      </c>
+      <c r="C84">
+        <v>1690854021</v>
+      </c>
+      <c r="D84">
+        <v>1344242415</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="4"/>
+        <v>0.9468523256556044</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>0.98004454802774832</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>354122019</v>
+      </c>
+      <c r="B85">
+        <v>185104479</v>
+      </c>
+      <c r="C85">
+        <v>318910445</v>
+      </c>
+      <c r="D85">
+        <v>178401341</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="4"/>
+        <v>0.90056655019805476</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>0.96378727280823928</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B86">
+        <v>335851228</v>
+      </c>
+      <c r="C86">
+        <v>675031901</v>
+      </c>
+      <c r="D86">
+        <v>315907244</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="4"/>
+        <v>0.79156663833285179</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="5"/>
+        <v>0.94061661135269092</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>199921067</v>
+      </c>
+      <c r="B87">
+        <v>85956070</v>
+      </c>
+      <c r="C87">
+        <v>180930434</v>
+      </c>
+      <c r="D87">
+        <v>83123988</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>0.905009345513347</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>0.96705198364699552</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>224893587</v>
+      </c>
+      <c r="B88">
+        <v>101662948</v>
+      </c>
+      <c r="C88">
+        <v>190630198</v>
+      </c>
+      <c r="D88">
+        <v>95167958</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="4"/>
+        <v>0.84764621589676548</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>0.93611251564335907</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>500840583</v>
+      </c>
+      <c r="B89">
+        <v>255219001</v>
+      </c>
+      <c r="C89">
+        <v>427679076</v>
+      </c>
+      <c r="D89">
+        <v>242538856</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="4"/>
+        <v>0.85392256641471087</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>0.95031661063511486</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>607787062</v>
+      </c>
+      <c r="B90">
+        <v>406689968</v>
+      </c>
+      <c r="C90">
+        <v>571795670</v>
+      </c>
+      <c r="D90">
+        <v>397465283</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="4"/>
+        <v>0.94078289215047495</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>0.97731764802223986</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>711411552</v>
+      </c>
+      <c r="B91">
+        <v>341365771</v>
+      </c>
+      <c r="C91">
+        <v>637810582</v>
+      </c>
+      <c r="D91">
+        <v>332056248</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="4"/>
+        <v>0.89654234627890894</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="5"/>
+        <v>0.97272859849794369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>125439069</v>
+      </c>
+      <c r="B92">
+        <v>40666094</v>
+      </c>
+      <c r="C92">
+        <v>110406831</v>
+      </c>
+      <c r="D92">
+        <v>36164460</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="4"/>
+        <v>0.8801630295900873</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="5"/>
+        <v>0.88930252312897329</v>
+      </c>
+      <c r="I92">
+        <f>AVERAGE(F82:F92)</f>
+        <v>0.88792000518333225</v>
+      </c>
+      <c r="J92">
+        <f>AVERAGE(G82:G92)</f>
+        <v>0.95419284879432531</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B95">
+        <v>33395688</v>
+      </c>
+      <c r="C95">
+        <v>70203301</v>
+      </c>
+      <c r="D95">
+        <v>32854202</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="4"/>
+        <v>0.97700475532616171</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="5"/>
+        <v>0.98378575102270693</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>356976764</v>
+      </c>
+      <c r="B96">
+        <v>172533520</v>
+      </c>
+      <c r="C96">
+        <v>322481226</v>
+      </c>
+      <c r="D96">
+        <v>166849073</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="4"/>
+        <v>0.90336755363718857</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="5"/>
+        <v>0.96705308626404884</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1785763181</v>
+      </c>
+      <c r="B97">
+        <v>1371613584</v>
+      </c>
+      <c r="C97">
+        <v>1726290420</v>
+      </c>
+      <c r="D97">
+        <v>1352871361</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="4"/>
+        <v>0.96669616574427508</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="5"/>
+        <v>0.98633563911977118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>354122019</v>
+      </c>
+      <c r="B98">
+        <v>185104479</v>
+      </c>
+      <c r="C98">
+        <v>333124351</v>
+      </c>
+      <c r="D98">
+        <v>181021518</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="4"/>
+        <v>0.94070499185762291</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="5"/>
+        <v>0.97794239760130275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B99">
+        <v>335851228</v>
+      </c>
+      <c r="C99">
+        <v>714975126</v>
+      </c>
+      <c r="D99">
+        <v>323277923</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="4"/>
+        <v>0.83840549778613671</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="5"/>
+        <v>0.96256287322552236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>199921067</v>
+      </c>
+      <c r="B100">
+        <v>85956070</v>
+      </c>
+      <c r="C100">
+        <v>192028114</v>
+      </c>
+      <c r="D100">
+        <v>84981600</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="4"/>
+        <v>0.96051965348904422</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="5"/>
+        <v>0.98866316247357522</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>224893587</v>
+      </c>
+      <c r="B101">
+        <v>101662948</v>
+      </c>
+      <c r="C101">
+        <v>206602304</v>
+      </c>
+      <c r="D101">
+        <v>98772613</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="4"/>
+        <v>0.91866694269054461</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="5"/>
+        <v>0.97156943550368025</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>500840583</v>
+      </c>
+      <c r="B102">
+        <v>255219001</v>
+      </c>
+      <c r="C102">
+        <v>442849291</v>
+      </c>
+      <c r="D102">
+        <v>248028191</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="4"/>
+        <v>0.88421207472318597</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="5"/>
+        <v>0.97182494261075802</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>607787062</v>
+      </c>
+      <c r="B103">
+        <v>406689968</v>
+      </c>
+      <c r="C103">
+        <v>581416929</v>
+      </c>
+      <c r="D103">
+        <v>401546869</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="4"/>
+        <v>0.95661287538233253</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="5"/>
+        <v>0.9873537598547304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>711411552</v>
+      </c>
+      <c r="B104">
+        <v>341365771</v>
+      </c>
+      <c r="C104">
+        <v>678680245</v>
+      </c>
+      <c r="D104">
+        <v>336243645</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="4"/>
+        <v>0.95399103808761321</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="5"/>
+        <v>0.98499519742417296</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>125439069</v>
+      </c>
+      <c r="B105">
+        <v>40666094</v>
+      </c>
+      <c r="C105">
+        <v>117839567</v>
+      </c>
+      <c r="D105">
+        <v>38385800</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="4"/>
+        <v>0.93941678569058895</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="5"/>
+        <v>0.94392640709481468</v>
+      </c>
+      <c r="I105">
+        <f>AVERAGE(F95:F105)</f>
+        <v>0.93087257585588123</v>
+      </c>
+      <c r="J105">
+        <f>AVERAGE(G95:G105)</f>
+        <v>0.97509205929046205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B108">
+        <v>33395688</v>
+      </c>
+      <c r="C108">
+        <v>68217459</v>
+      </c>
+      <c r="D108">
+        <v>31074256</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="4"/>
+        <v>0.94936820476956585</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="5"/>
+        <v>0.93048707366052763</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>356976764</v>
+      </c>
+      <c r="B109">
+        <v>172533520</v>
+      </c>
+      <c r="C109">
+        <v>126349850</v>
+      </c>
+      <c r="D109">
+        <v>135136713</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="4"/>
+        <v>0.35394418556609469</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="5"/>
+        <v>0.78324903473829321</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1785763181</v>
+      </c>
+      <c r="B110">
+        <v>1371613584</v>
+      </c>
+      <c r="C110">
+        <v>1755649343</v>
+      </c>
+      <c r="D110">
+        <v>1360812008</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="4"/>
+        <v>0.98313671245974688</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="5"/>
+        <v>0.99212491322191509</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>354122019</v>
+      </c>
+      <c r="B111">
+        <v>185104479</v>
+      </c>
+      <c r="C111">
+        <v>345936420</v>
+      </c>
+      <c r="D111">
+        <v>181880640</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="4"/>
+        <v>0.97688480647683196</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="5"/>
+        <v>0.98258367913398792</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B112">
+        <v>335851228</v>
+      </c>
+      <c r="C112">
+        <v>840465294</v>
+      </c>
+      <c r="D112">
+        <v>335066351</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="4"/>
+        <v>0.98555977342915524</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="5"/>
+        <v>0.99766302179487643</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>199921067</v>
+      </c>
+      <c r="B113">
+        <v>85956070</v>
+      </c>
+      <c r="C113">
+        <v>184926028</v>
+      </c>
+      <c r="D113">
+        <v>84818669</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="4"/>
+        <v>0.92499520323188356</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="5"/>
+        <v>0.98676764770655523</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>224893587</v>
+      </c>
+      <c r="B114">
+        <v>101662948</v>
+      </c>
+      <c r="C114">
+        <v>221123641</v>
+      </c>
+      <c r="D114">
+        <v>97429866</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="4"/>
+        <v>0.98323675632422547</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="5"/>
+        <v>0.95836160485922561</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>500840583</v>
+      </c>
+      <c r="B115">
+        <v>255219001</v>
+      </c>
+      <c r="C115">
+        <v>478235416</v>
+      </c>
+      <c r="D115">
+        <v>251896942</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="4"/>
+        <v>0.9548655445119949</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="5"/>
+        <v>0.98698349657751383</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>607787062</v>
+      </c>
+      <c r="B116">
+        <v>406689968</v>
+      </c>
+      <c r="C116">
+        <v>607350216</v>
+      </c>
+      <c r="D116">
+        <v>403659938</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="4"/>
+        <v>0.99928125156438419</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="5"/>
+        <v>0.99254953345689612</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>711411552</v>
+      </c>
+      <c r="B117">
+        <v>341365771</v>
+      </c>
+      <c r="C117">
+        <v>669214977</v>
+      </c>
+      <c r="D117">
+        <v>319454550</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="4"/>
+        <v>0.94068612622135206</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="5"/>
+        <v>0.93581306955347909</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>125439069</v>
+      </c>
+      <c r="B118">
+        <v>40666094</v>
+      </c>
+      <c r="C118">
+        <v>111103812</v>
+      </c>
+      <c r="D118">
+        <v>35311984</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="4"/>
+        <v>0.88571936068817603</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="5"/>
+        <v>0.86833970334106836</v>
+      </c>
+      <c r="I118">
+        <f>AVERAGE(F108:F118)</f>
+        <v>0.90342526593121919</v>
+      </c>
+      <c r="J118">
+        <f>AVERAGE(G108:G118)</f>
+        <v>0.94681116164039447</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B121">
+        <v>33395688</v>
+      </c>
+      <c r="C121">
+        <v>68211100</v>
+      </c>
+      <c r="D121">
+        <v>31073616</v>
+      </c>
+      <c r="F121">
+        <f t="shared" ref="F121:F131" si="6">C121/A121</f>
+        <v>0.94927970788764404</v>
+      </c>
+      <c r="G121">
+        <f t="shared" ref="G121:G131" si="7">D121/B121</f>
+        <v>0.93046790950975466</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>356976764</v>
+      </c>
+      <c r="B122">
+        <v>172533520</v>
+      </c>
+      <c r="C122">
+        <v>126065635</v>
+      </c>
+      <c r="D122">
+        <v>135136433</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="6"/>
+        <v>0.35314801329758261</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="7"/>
+        <v>0.78324741186524216</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1785763181</v>
+      </c>
+      <c r="B123">
+        <v>1371613584</v>
+      </c>
+      <c r="C123">
+        <v>1755640987</v>
+      </c>
+      <c r="D123">
+        <v>1360810160</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="6"/>
+        <v>0.98313203322787068</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="7"/>
+        <v>0.99212356590367512</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>354122019</v>
+      </c>
+      <c r="B124">
+        <v>185104479</v>
+      </c>
+      <c r="C124">
+        <v>346085738</v>
+      </c>
+      <c r="D124">
+        <v>182397152</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="6"/>
+        <v>0.97730646339729588</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="7"/>
+        <v>0.98537406001936889</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B125">
+        <v>335851228</v>
+      </c>
+      <c r="C125">
+        <v>841295334</v>
+      </c>
+      <c r="D125">
+        <v>335383151</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="6"/>
+        <v>0.98653310812860939</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="7"/>
+        <v>0.99860629659511024</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>199921067</v>
+      </c>
+      <c r="B126">
+        <v>85956070</v>
+      </c>
+      <c r="C126">
+        <v>184922562</v>
+      </c>
+      <c r="D126">
+        <v>84820137</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="6"/>
+        <v>0.92497786638963864</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="7"/>
+        <v>0.98678472619792879</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>224893587</v>
+      </c>
+      <c r="B127">
+        <v>101662948</v>
+      </c>
+      <c r="C127">
+        <v>221020613</v>
+      </c>
+      <c r="D127">
+        <v>97423069</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="6"/>
+        <v>0.9827786374362022</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="7"/>
+        <v>0.95829474667604564</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>500840583</v>
+      </c>
+      <c r="B128">
+        <v>255219001</v>
+      </c>
+      <c r="C128">
+        <v>478151318</v>
+      </c>
+      <c r="D128">
+        <v>251893672</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="6"/>
+        <v>0.95469763080281378</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="7"/>
+        <v>0.98697068405185084</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>607787062</v>
+      </c>
+      <c r="B129">
+        <v>406689968</v>
+      </c>
+      <c r="C129">
+        <v>607200443</v>
+      </c>
+      <c r="D129">
+        <v>403571314</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="6"/>
+        <v>0.99903482808918365</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="7"/>
+        <v>0.99233161807423786</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>711411552</v>
+      </c>
+      <c r="B130">
+        <v>341365771</v>
+      </c>
+      <c r="C130">
+        <v>669472368</v>
+      </c>
+      <c r="D130">
+        <v>319407475</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="6"/>
+        <v>0.9410479294550449</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="7"/>
+        <v>0.93567516761954439</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>125439069</v>
+      </c>
+      <c r="B131">
+        <v>40666094</v>
+      </c>
+      <c r="C131">
+        <v>111104174</v>
+      </c>
+      <c r="D131">
+        <v>35311508</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="6"/>
+        <v>0.88572224655143128</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="7"/>
+        <v>0.86832799825820495</v>
+      </c>
+      <c r="I131">
+        <f>AVERAGE(F121:F131)</f>
+        <v>0.90342349678757439</v>
+      </c>
+      <c r="J131">
+        <f>AVERAGE(G121:G131)</f>
+        <v>0.94710947134281487</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B134">
+        <v>33395688</v>
+      </c>
+      <c r="C134">
+        <v>68213084</v>
+      </c>
+      <c r="D134">
+        <v>31074890</v>
+      </c>
+      <c r="F134">
+        <f t="shared" ref="F134:F144" si="8">C134/A134</f>
+        <v>0.9493073188034693</v>
+      </c>
+      <c r="G134">
+        <f t="shared" ref="G134:G144" si="9">D134/B134</f>
+        <v>0.93050605814738718</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>356976764</v>
+      </c>
+      <c r="B135">
+        <v>172533520</v>
+      </c>
+      <c r="C135">
+        <v>126182217</v>
+      </c>
+      <c r="D135">
+        <v>135137059</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="8"/>
+        <v>0.35347459477782706</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="9"/>
+        <v>0.78325104014570623</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1785763181</v>
+      </c>
+      <c r="B136">
+        <v>1371613584</v>
+      </c>
+      <c r="C136">
+        <v>1755683310</v>
+      </c>
+      <c r="D136">
+        <v>1360816396</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="8"/>
+        <v>0.98315573345892615</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="9"/>
+        <v>0.99212811237366694</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>354122019</v>
+      </c>
+      <c r="B137">
+        <v>185104479</v>
+      </c>
+      <c r="C137">
+        <v>346041559</v>
+      </c>
+      <c r="D137">
+        <v>182044877</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="8"/>
+        <v>0.97718170696411844</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="9"/>
+        <v>0.98347094561661041</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B138">
+        <v>335851228</v>
+      </c>
+      <c r="C138">
+        <v>838626798</v>
+      </c>
+      <c r="D138">
+        <v>334450704</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="8"/>
+        <v>0.98340388702415349</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="9"/>
+        <v>0.99582992741059739</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>199921067</v>
+      </c>
+      <c r="B139">
+        <v>85956070</v>
+      </c>
+      <c r="C139">
+        <v>184888545</v>
+      </c>
+      <c r="D139">
+        <v>84815740</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="8"/>
+        <v>0.92480771423653918</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="9"/>
+        <v>0.98673357216075608</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>224893587</v>
+      </c>
+      <c r="B140">
+        <v>101662948</v>
+      </c>
+      <c r="C140">
+        <v>221051720</v>
+      </c>
+      <c r="D140">
+        <v>97457077</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="8"/>
+        <v>0.98291695618692765</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="9"/>
+        <v>0.95862926382972879</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>500840583</v>
+      </c>
+      <c r="B141">
+        <v>255219001</v>
+      </c>
+      <c r="C141">
+        <v>478169937</v>
+      </c>
+      <c r="D141">
+        <v>251886179</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="8"/>
+        <v>0.95473480630462404</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="9"/>
+        <v>0.98694132495252573</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>607787062</v>
+      </c>
+      <c r="B142">
+        <v>406689968</v>
+      </c>
+      <c r="C142">
+        <v>607360843</v>
+      </c>
+      <c r="D142">
+        <v>403740665</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="8"/>
+        <v>0.99929873630643362</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="9"/>
+        <v>0.9927480310997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>711411552</v>
+      </c>
+      <c r="B143">
+        <v>341365771</v>
+      </c>
+      <c r="C143">
+        <v>668484000</v>
+      </c>
+      <c r="D143">
+        <v>319098348</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="8"/>
+        <v>0.9396586239296828</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="9"/>
+        <v>0.93476960816906274</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>125439069</v>
+      </c>
+      <c r="B144">
+        <v>40666094</v>
+      </c>
+      <c r="C144">
+        <v>111103014</v>
+      </c>
+      <c r="D144">
+        <v>35312148</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="8"/>
+        <v>0.88571299903381773</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="9"/>
+        <v>0.86834373618474403</v>
+      </c>
+      <c r="I144">
+        <f>AVERAGE(F134:F144)</f>
+        <v>0.90305937063877451</v>
+      </c>
+      <c r="J144">
+        <f>AVERAGE(G134:G144)</f>
+        <v>0.94666832909913512</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B147">
+        <v>33395688</v>
+      </c>
+      <c r="C147">
+        <v>68208620</v>
+      </c>
+      <c r="D147">
+        <v>31071594</v>
+      </c>
+      <c r="F147">
+        <f t="shared" ref="F147:F157" si="10">C147/A147</f>
+        <v>0.94924519424286247</v>
+      </c>
+      <c r="G147">
+        <f t="shared" ref="G147:G157" si="11">D147/B147</f>
+        <v>0.93040736277090619</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>356976764</v>
+      </c>
+      <c r="B148">
+        <v>172533520</v>
+      </c>
+      <c r="C148">
+        <v>125569315</v>
+      </c>
+      <c r="D148">
+        <v>135135609</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="10"/>
+        <v>0.35175767070374364</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="11"/>
+        <v>0.78324263598169219</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1785763181</v>
+      </c>
+      <c r="B149">
+        <v>1371613584</v>
+      </c>
+      <c r="C149">
+        <v>1755651650</v>
+      </c>
+      <c r="D149">
+        <v>1360813813</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="10"/>
+        <v>0.98313800434437337</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="11"/>
+        <v>0.99212622919021776</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>354122019</v>
+      </c>
+      <c r="B150">
+        <v>185104479</v>
+      </c>
+      <c r="C150">
+        <v>346035524</v>
+      </c>
+      <c r="D150">
+        <v>182523975</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="10"/>
+        <v>0.97716466481571707</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="11"/>
+        <v>0.98605920281377957</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B151">
+        <v>335851228</v>
+      </c>
+      <c r="C151">
+        <v>840316220</v>
+      </c>
+      <c r="D151">
+        <v>335137406</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="10"/>
+        <v>0.98538496390553421</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="11"/>
+        <v>0.99787458868544021</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>199921067</v>
+      </c>
+      <c r="B152">
+        <v>85956070</v>
+      </c>
+      <c r="C152">
+        <v>184931670</v>
+      </c>
+      <c r="D152">
+        <v>84818153</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="10"/>
+        <v>0.92502342436977891</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="11"/>
+        <v>0.98676164464010507</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>224893587</v>
+      </c>
+      <c r="B153">
+        <v>101662948</v>
+      </c>
+      <c r="C153">
+        <v>221010374</v>
+      </c>
+      <c r="D153">
+        <v>97446822</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="10"/>
+        <v>0.98273310923712553</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="11"/>
+        <v>0.95852839128764988</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>500840583</v>
+      </c>
+      <c r="B154">
+        <v>255219001</v>
+      </c>
+      <c r="C154">
+        <v>478139016</v>
+      </c>
+      <c r="D154">
+        <v>251908910</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="10"/>
+        <v>0.95467306809679997</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="11"/>
+        <v>0.98703038963779977</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>607787062</v>
+      </c>
+      <c r="B155">
+        <v>406689968</v>
+      </c>
+      <c r="C155">
+        <v>607361545</v>
+      </c>
+      <c r="D155">
+        <v>403723627</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="10"/>
+        <v>0.99929989131621233</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="11"/>
+        <v>0.99270613677886443</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>711411552</v>
+      </c>
+      <c r="B156">
+        <v>341365771</v>
+      </c>
+      <c r="C156">
+        <v>669632920</v>
+      </c>
+      <c r="D156">
+        <v>319446414</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="10"/>
+        <v>0.94127361035599266</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="11"/>
+        <v>0.93578923588094598</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>125439069</v>
+      </c>
+      <c r="B157">
+        <v>40666094</v>
+      </c>
+      <c r="C157">
+        <v>111106204</v>
+      </c>
+      <c r="D157">
+        <v>35311992</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="10"/>
+        <v>0.88573842970725492</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="11"/>
+        <v>0.86833990006515005</v>
+      </c>
+      <c r="I157">
+        <f>AVERAGE(F147:F157)</f>
+        <v>0.90322109373594484</v>
+      </c>
+      <c r="J157">
+        <f>AVERAGE(G147:G157)</f>
+        <v>0.94716961070295913</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B160">
+        <v>33395688</v>
+      </c>
+      <c r="C160">
+        <v>70498239</v>
+      </c>
+      <c r="D160">
+        <v>33163492</v>
+      </c>
+      <c r="F160">
+        <f t="shared" ref="F160:F170" si="12">C160/A160</f>
+        <v>0.98110934619898094</v>
+      </c>
+      <c r="G160">
+        <f t="shared" ref="G160:G170" si="13">D160/B160</f>
+        <v>0.99304712632361403</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>356976764</v>
+      </c>
+      <c r="B161">
+        <v>172533520</v>
+      </c>
+      <c r="C161">
+        <v>335321356</v>
+      </c>
+      <c r="D161">
+        <v>170005540</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="12"/>
+        <v>0.93933664545180318</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="13"/>
+        <v>0.98534789065916006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1785763181</v>
+      </c>
+      <c r="B162">
+        <v>1371613584</v>
+      </c>
+      <c r="C162">
+        <v>1715983253</v>
+      </c>
+      <c r="D162">
+        <v>1352067983</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="12"/>
+        <v>0.96092431026552783</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="13"/>
+        <v>0.98574992167764941</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>354122019</v>
+      </c>
+      <c r="B163">
+        <v>185104479</v>
+      </c>
+      <c r="C163">
+        <v>322252354</v>
+      </c>
+      <c r="D163">
+        <v>180460632</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="12"/>
+        <v>0.91000371823814774</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="13"/>
+        <v>0.97491229264095769</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B164">
+        <v>335851228</v>
+      </c>
+      <c r="C164">
+        <v>653773516</v>
+      </c>
+      <c r="D164">
+        <v>318122142</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="12"/>
+        <v>0.76663829298219921</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="13"/>
+        <v>0.94721148972544478</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>199921067</v>
+      </c>
+      <c r="B165">
+        <v>85956070</v>
+      </c>
+      <c r="C165">
+        <v>185246601</v>
+      </c>
+      <c r="D165">
+        <v>84696667</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="12"/>
+        <v>0.92659870107636033</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="13"/>
+        <v>0.98534829477429575</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>224893587</v>
+      </c>
+      <c r="B166">
+        <v>101662948</v>
+      </c>
+      <c r="C166">
+        <v>192962997</v>
+      </c>
+      <c r="D166">
+        <v>97511567</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="12"/>
+        <v>0.85801911728145452</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="13"/>
+        <v>0.95916525064765978</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>500840583</v>
+      </c>
+      <c r="B167">
+        <v>255219001</v>
+      </c>
+      <c r="C167">
+        <v>454631932</v>
+      </c>
+      <c r="D167">
+        <v>246658971</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="12"/>
+        <v>0.90773780606353138</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="13"/>
+        <v>0.96646005992320294</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>607787062</v>
+      </c>
+      <c r="B168">
+        <v>406689968</v>
+      </c>
+      <c r="C168">
+        <v>583294837</v>
+      </c>
+      <c r="D168">
+        <v>401404427</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="12"/>
+        <v>0.95970262196861311</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="13"/>
+        <v>0.98700351271020292</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>711411552</v>
+      </c>
+      <c r="B169">
+        <v>341365771</v>
+      </c>
+      <c r="C169">
+        <v>657800122</v>
+      </c>
+      <c r="D169">
+        <v>337063136</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="12"/>
+        <v>0.92464076546229601</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="13"/>
+        <v>0.98739582182655328</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>125439069</v>
+      </c>
+      <c r="B170">
+        <v>40666094</v>
+      </c>
+      <c r="C170">
+        <v>114406859</v>
+      </c>
+      <c r="D170">
+        <v>36804110</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="12"/>
+        <v>0.91205124457675946</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="13"/>
+        <v>0.90503184298939554</v>
+      </c>
+      <c r="I170">
+        <f>AVERAGE(F160:F170)</f>
+        <v>0.91334205177869765</v>
+      </c>
+      <c r="J170">
+        <f>AVERAGE(G160:G170)</f>
+        <v>0.97060668217255774</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B173">
+        <v>33395688</v>
+      </c>
+      <c r="C173">
+        <v>68209548</v>
+      </c>
+      <c r="D173">
+        <v>31072668</v>
+      </c>
+      <c r="F173">
+        <f t="shared" ref="F173:F183" si="14">C173/A173</f>
+        <v>0.949258109026071</v>
+      </c>
+      <c r="G173">
+        <f t="shared" ref="G173:G183" si="15">D173/B173</f>
+        <v>0.93043952261142215</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>356976764</v>
+      </c>
+      <c r="B174">
+        <v>172533520</v>
+      </c>
+      <c r="C174">
+        <v>126330720</v>
+      </c>
+      <c r="D174">
+        <v>135138091</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="14"/>
+        <v>0.35389059664398775</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="15"/>
+        <v>0.78325702159209409</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1785763181</v>
+      </c>
+      <c r="B175">
+        <v>1371613584</v>
+      </c>
+      <c r="C175">
+        <v>1755647930</v>
+      </c>
+      <c r="D175">
+        <v>1360816849</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="14"/>
+        <v>0.98313592120141269</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="15"/>
+        <v>0.99212844264161215</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>354122019</v>
+      </c>
+      <c r="B176">
+        <v>185104479</v>
+      </c>
+      <c r="C176">
+        <v>346140283</v>
+      </c>
+      <c r="D176">
+        <v>182350515</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="14"/>
+        <v>0.97746049222655085</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="15"/>
+        <v>0.98512211041635578</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B177">
+        <v>335851228</v>
+      </c>
+      <c r="C177">
+        <v>841465649</v>
+      </c>
+      <c r="D177">
+        <v>335432530</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="14"/>
+        <v>0.98673282561130604</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="15"/>
+        <v>0.99875332300407726</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>199921067</v>
+      </c>
+      <c r="B178">
+        <v>85956070</v>
+      </c>
+      <c r="C178">
+        <v>184939339</v>
+      </c>
+      <c r="D178">
+        <v>84820005</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="14"/>
+        <v>0.9250617845091833</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="15"/>
+        <v>0.98678319052976715</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>224893587</v>
+      </c>
+      <c r="B179">
+        <v>101662948</v>
+      </c>
+      <c r="C179">
+        <v>221105039</v>
+      </c>
+      <c r="D179">
+        <v>97454847</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="14"/>
+        <v>0.98315404164903997</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="15"/>
+        <v>0.95860732860117337</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>500840583</v>
+      </c>
+      <c r="B180">
+        <v>255219001</v>
+      </c>
+      <c r="C180">
+        <v>478132587</v>
+      </c>
+      <c r="D180">
+        <v>251902994</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="14"/>
+        <v>0.95466023167695258</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="15"/>
+        <v>0.98700720954549936</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>607787062</v>
+      </c>
+      <c r="B181">
+        <v>406689968</v>
+      </c>
+      <c r="C181">
+        <v>607361907</v>
+      </c>
+      <c r="D181">
+        <v>403718999</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="14"/>
+        <v>0.99930048691954554</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="15"/>
+        <v>0.99269475710303234</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>711411552</v>
+      </c>
+      <c r="B182">
+        <v>341365771</v>
+      </c>
+      <c r="C182">
+        <v>669196877</v>
+      </c>
+      <c r="D182">
+        <v>319419632</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="14"/>
+        <v>0.94066068384562862</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="15"/>
+        <v>0.93571078044611566</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>125439069</v>
+      </c>
+      <c r="B183">
+        <v>40666094</v>
+      </c>
+      <c r="C183">
+        <v>111105039</v>
+      </c>
+      <c r="D183">
+        <v>35311630</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="14"/>
+        <v>0.88572914232965172</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="15"/>
+        <v>0.86833099830045146</v>
+      </c>
+      <c r="I183">
+        <f>AVERAGE(F173:F183)</f>
+        <v>0.90354948323993911</v>
+      </c>
+      <c r="J183">
+        <f>AVERAGE(G173:G183)</f>
+        <v>0.94716678952650923</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B186">
+        <v>33395688</v>
+      </c>
+      <c r="C186">
+        <v>68209425</v>
+      </c>
+      <c r="D186">
+        <v>31073136</v>
+      </c>
+      <c r="F186">
+        <f t="shared" ref="F186:F196" si="16">C186/A186</f>
+        <v>0.94925639726062416</v>
+      </c>
+      <c r="G186">
+        <f t="shared" ref="G186:G196" si="17">D186/B186</f>
+        <v>0.93045353639667494</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>356976764</v>
+      </c>
+      <c r="B187">
+        <v>172533520</v>
+      </c>
+      <c r="C187">
+        <v>126070147</v>
+      </c>
+      <c r="D187">
+        <v>135138099</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="16"/>
+        <v>0.35316065277570841</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="17"/>
+        <v>0.78325706795989558</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1785763181</v>
+      </c>
+      <c r="B188">
+        <v>1371613584</v>
+      </c>
+      <c r="C188">
+        <v>1755586452</v>
+      </c>
+      <c r="D188">
+        <v>1360823828</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="16"/>
+        <v>0.98310149446406359</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="17"/>
+        <v>0.99213353080935951</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>354122019</v>
+      </c>
+      <c r="B189">
+        <v>185104479</v>
+      </c>
+      <c r="C189">
+        <v>346030781</v>
+      </c>
+      <c r="D189">
+        <v>182446763</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="16"/>
+        <v>0.97715127112725519</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="17"/>
+        <v>0.98564207622442246</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B190">
+        <v>335851228</v>
+      </c>
+      <c r="C190">
+        <v>840874452</v>
+      </c>
+      <c r="D190">
+        <v>335288023</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="16"/>
+        <v>0.98603956678725757</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="17"/>
+        <v>0.99832305213426231</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>199921067</v>
+      </c>
+      <c r="B191">
+        <v>85956070</v>
+      </c>
+      <c r="C191">
+        <v>184923254</v>
+      </c>
+      <c r="D191">
+        <v>84818192</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="16"/>
+        <v>0.92498132775571873</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="17"/>
+        <v>0.98676209836024376</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>224893587</v>
+      </c>
+      <c r="B192">
+        <v>101662948</v>
+      </c>
+      <c r="C192">
+        <v>221067016</v>
+      </c>
+      <c r="D192">
+        <v>97435227</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="16"/>
+        <v>0.98298497057632861</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="17"/>
+        <v>0.95841433793558695</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>500840583</v>
+      </c>
+      <c r="B193">
+        <v>255219001</v>
+      </c>
+      <c r="C193">
+        <v>478164569</v>
+      </c>
+      <c r="D193">
+        <v>251889101</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="16"/>
+        <v>0.95472408832332978</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="17"/>
+        <v>0.98695277394334757</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>607787062</v>
+      </c>
+      <c r="B194">
+        <v>406689968</v>
+      </c>
+      <c r="C194">
+        <v>607271481</v>
+      </c>
+      <c r="D194">
+        <v>403579136</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="16"/>
+        <v>0.99915170783941432</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="17"/>
+        <v>0.99235085139842938</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>711411552</v>
+      </c>
+      <c r="B195">
+        <v>341365771</v>
+      </c>
+      <c r="C195">
+        <v>668842370</v>
+      </c>
+      <c r="D195">
+        <v>319339628</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="16"/>
+        <v>0.94016236891244631</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="17"/>
+        <v>0.9354764159995409</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>125439069</v>
+      </c>
+      <c r="B196">
+        <v>40666094</v>
+      </c>
+      <c r="C196">
+        <v>111103724</v>
+      </c>
+      <c r="D196">
+        <v>35312088</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="16"/>
+        <v>0.88571865915235704</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="17"/>
+        <v>0.8683422607541309</v>
+      </c>
+      <c r="I196">
+        <f>AVERAGE(F186:F196)</f>
+        <v>0.90331204590677305</v>
+      </c>
+      <c r="J196">
+        <f>AVERAGE(G186:G196)</f>
+        <v>0.94710072744689944</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B199">
+        <v>33395688</v>
+      </c>
+      <c r="C199">
+        <v>55058183</v>
+      </c>
+      <c r="D199">
+        <v>28054376</v>
+      </c>
+      <c r="F199">
+        <f t="shared" ref="F199:F209" si="18">C199/A199</f>
+        <v>0.76623329450873023</v>
+      </c>
+      <c r="G199">
+        <f t="shared" ref="G199:G209" si="19">D199/B199</f>
+        <v>0.84005983047871335</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>356976764</v>
+      </c>
+      <c r="B200">
+        <v>172533520</v>
+      </c>
+      <c r="C200">
+        <v>239058660</v>
+      </c>
+      <c r="D200">
+        <v>135349367</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="18"/>
+        <v>0.6696756879111605</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="19"/>
+        <v>0.78448157204466706</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1785763181</v>
+      </c>
+      <c r="B201">
+        <v>1371613584</v>
+      </c>
+      <c r="C201">
+        <v>1481225670</v>
+      </c>
+      <c r="D201">
+        <v>1292717700</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="18"/>
+        <v>0.82946366335682675</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="19"/>
+        <v>0.94247951105156158</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>354122019</v>
+      </c>
+      <c r="B202">
+        <v>185104479</v>
+      </c>
+      <c r="C202">
+        <v>246919414</v>
+      </c>
+      <c r="D202">
+        <v>163489275</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="18"/>
+        <v>0.69727212867833555</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="19"/>
+        <v>0.88322700716496438</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B203">
+        <v>335851228</v>
+      </c>
+      <c r="C203">
+        <v>465687770</v>
+      </c>
+      <c r="D203">
+        <v>273541092</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="18"/>
+        <v>0.54608219561999971</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="19"/>
+        <v>0.81447101929310195</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>199921067</v>
+      </c>
+      <c r="B204">
+        <v>85956070</v>
+      </c>
+      <c r="C204">
+        <v>134297705</v>
+      </c>
+      <c r="D204">
+        <v>75456375</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="18"/>
+        <v>0.67175364265137705</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="19"/>
+        <v>0.87784812637432119</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>224893587</v>
+      </c>
+      <c r="B205">
+        <v>101662948</v>
+      </c>
+      <c r="C205">
+        <v>120245852</v>
+      </c>
+      <c r="D205">
+        <v>74024314</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="18"/>
+        <v>0.53467888348456993</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="19"/>
+        <v>0.72813463957389868</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>500840583</v>
+      </c>
+      <c r="B206">
+        <v>255219001</v>
+      </c>
+      <c r="C206">
+        <v>292782572</v>
+      </c>
+      <c r="D206">
+        <v>187045143</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="18"/>
+        <v>0.5845823640054344</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="19"/>
+        <v>0.73288094643078705</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>607787062</v>
+      </c>
+      <c r="B207">
+        <v>406689968</v>
+      </c>
+      <c r="C207">
+        <v>515481756</v>
+      </c>
+      <c r="D207">
+        <v>336783161</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="18"/>
+        <v>0.84812887313484797</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="19"/>
+        <v>0.82810786471133213</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>711411552</v>
+      </c>
+      <c r="B208">
+        <v>341365771</v>
+      </c>
+      <c r="C208">
+        <v>490290933</v>
+      </c>
+      <c r="D208">
+        <v>292100016</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="18"/>
+        <v>0.68918044923734945</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="19"/>
+        <v>0.85568044840676194</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>125439069</v>
+      </c>
+      <c r="B209">
+        <v>40666094</v>
+      </c>
+      <c r="C209">
+        <v>64562984</v>
+      </c>
+      <c r="D209">
+        <v>26209239</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="18"/>
+        <v>0.51469597562143898</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="19"/>
+        <v>0.64449855941413992</v>
+      </c>
+      <c r="I209">
+        <f>AVERAGE(F199:F209)</f>
+        <v>0.66834065074637006</v>
+      </c>
+      <c r="J209">
+        <f>AVERAGE(G199:G209)</f>
+        <v>0.81198813863129538</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B212">
+        <v>33395688</v>
+      </c>
+      <c r="C212">
+        <v>68207292</v>
+      </c>
+      <c r="D212">
+        <v>31071923</v>
+      </c>
+      <c r="F212">
+        <f t="shared" ref="F212:F222" si="20">C212/A212</f>
+        <v>0.94922671274275361</v>
+      </c>
+      <c r="G212">
+        <f t="shared" ref="G212:G222" si="21">D212/B212</f>
+        <v>0.93041721434216296</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>356976764</v>
+      </c>
+      <c r="B213">
+        <v>172533520</v>
+      </c>
+      <c r="C213">
+        <v>126197148</v>
+      </c>
+      <c r="D213">
+        <v>135129866</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="20"/>
+        <v>0.35351642102957714</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="21"/>
+        <v>0.78320934969622136</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1785763181</v>
+      </c>
+      <c r="B214">
+        <v>1371613584</v>
+      </c>
+      <c r="C214">
+        <v>1755600880</v>
+      </c>
+      <c r="D214">
+        <v>1360818096</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="20"/>
+        <v>0.98310957392283693</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="21"/>
+        <v>0.99212935178979678</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>354122019</v>
+      </c>
+      <c r="B215">
+        <v>185104479</v>
+      </c>
+      <c r="C215">
+        <v>345890489</v>
+      </c>
+      <c r="D215">
+        <v>181967086</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="20"/>
+        <v>0.97675510259643017</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="21"/>
+        <v>0.98305069106404497</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B216">
+        <v>335851228</v>
+      </c>
+      <c r="C216">
+        <v>841335657</v>
+      </c>
+      <c r="D216">
+        <v>335402884</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="20"/>
+        <v>0.98658039232586026</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="21"/>
+        <v>0.99866505177703269</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>199921067</v>
+      </c>
+      <c r="B217">
+        <v>85956070</v>
+      </c>
+      <c r="C217">
+        <v>184915183</v>
+      </c>
+      <c r="D217">
+        <v>84818719</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="20"/>
+        <v>0.92494095682272448</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="21"/>
+        <v>0.98676822939904074</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>224893587</v>
+      </c>
+      <c r="B218">
+        <v>101662948</v>
+      </c>
+      <c r="C218">
+        <v>221063011</v>
+      </c>
+      <c r="D218">
+        <v>97425253</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="20"/>
+        <v>0.98296716215389457</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="21"/>
+        <v>0.95831622942903449</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>500840583</v>
+      </c>
+      <c r="B219">
+        <v>255219001</v>
+      </c>
+      <c r="C219">
+        <v>478058909</v>
+      </c>
+      <c r="D219">
+        <v>251897263</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="20"/>
+        <v>0.9545131229910736</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="21"/>
+        <v>0.98698475432085875</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>607787062</v>
+      </c>
+      <c r="B220">
+        <v>406689968</v>
+      </c>
+      <c r="C220">
+        <v>607333888</v>
+      </c>
+      <c r="D220">
+        <v>403684831</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="20"/>
+        <v>0.99925438689249357</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="21"/>
+        <v>0.99261074224481483</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>711411552</v>
+      </c>
+      <c r="B221">
+        <v>341365771</v>
+      </c>
+      <c r="C221">
+        <v>669517464</v>
+      </c>
+      <c r="D221">
+        <v>319437547</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="20"/>
+        <v>0.94111131892331146</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="21"/>
+        <v>0.93576326081035233</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>125439069</v>
+      </c>
+      <c r="B222">
+        <v>40666094</v>
+      </c>
+      <c r="C222">
+        <v>111105801</v>
+      </c>
+      <c r="D222">
+        <v>35311998</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="20"/>
+        <v>0.88573521699208402</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="21"/>
+        <v>0.86834004760821137</v>
+      </c>
+      <c r="I222">
+        <f>AVERAGE(F212:F222)</f>
+        <v>0.90342821521754901</v>
+      </c>
+      <c r="J222">
+        <f>AVERAGE(G212:G222)</f>
+        <v>0.94693226568014277</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B225">
+        <v>33395688</v>
+      </c>
+      <c r="C225">
+        <v>68208805</v>
+      </c>
+      <c r="D225">
+        <v>31073187</v>
+      </c>
+      <c r="F225">
+        <f t="shared" ref="F225:F235" si="22">C225/A225</f>
+        <v>0.94924776884942874</v>
+      </c>
+      <c r="G225">
+        <f t="shared" ref="G225:G235" si="23">D225/B225</f>
+        <v>0.93045506353993968</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>356976764</v>
+      </c>
+      <c r="B226">
+        <v>172533520</v>
+      </c>
+      <c r="C226">
+        <v>126343288</v>
+      </c>
+      <c r="D226">
+        <v>135139695</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="22"/>
+        <v>0.35392580341727786</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="23"/>
+        <v>0.78326631833628624</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1785763181</v>
+      </c>
+      <c r="B227">
+        <v>1371613584</v>
+      </c>
+      <c r="C227">
+        <v>1755624692</v>
+      </c>
+      <c r="D227">
+        <v>1360816656</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="22"/>
+        <v>0.98312290827772419</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="23"/>
+        <v>0.99212830193142798</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>354122019</v>
+      </c>
+      <c r="B228">
+        <v>185104479</v>
+      </c>
+      <c r="C228">
+        <v>346215487</v>
+      </c>
+      <c r="D228">
+        <v>182015442</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="22"/>
+        <v>0.97767285970432694</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="23"/>
+        <v>0.98331192731430339</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B229">
+        <v>335851228</v>
+      </c>
+      <c r="C229">
+        <v>839323943</v>
+      </c>
+      <c r="D229">
+        <v>335049908</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="22"/>
+        <v>0.98422138427615458</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="23"/>
+        <v>0.99761406261703467</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>199921067</v>
+      </c>
+      <c r="B230">
+        <v>85956070</v>
+      </c>
+      <c r="C230">
+        <v>184914464</v>
+      </c>
+      <c r="D230">
+        <v>84818363</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="22"/>
+        <v>0.92493736040334362</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="23"/>
+        <v>0.98676408774854407</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>224893587</v>
+      </c>
+      <c r="B231">
+        <v>101662948</v>
+      </c>
+      <c r="C231">
+        <v>221039490</v>
+      </c>
+      <c r="D231">
+        <v>97418117</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="22"/>
+        <v>0.9828625749119293</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="23"/>
+        <v>0.95824603669765707</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>500840583</v>
+      </c>
+      <c r="B232">
+        <v>255219001</v>
+      </c>
+      <c r="C232">
+        <v>477960783</v>
+      </c>
+      <c r="D232">
+        <v>251884007</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="22"/>
+        <v>0.95431720036952361</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="23"/>
+        <v>0.98693281461437898</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>607787062</v>
+      </c>
+      <c r="B233">
+        <v>406689968</v>
+      </c>
+      <c r="C233">
+        <v>607357842</v>
+      </c>
+      <c r="D233">
+        <v>403734975</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="22"/>
+        <v>0.99929379872189517</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="23"/>
+        <v>0.99273404009808275</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>711411552</v>
+      </c>
+      <c r="B234">
+        <v>341365771</v>
+      </c>
+      <c r="C234">
+        <v>669601979</v>
+      </c>
+      <c r="D234">
+        <v>319356180</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="22"/>
+        <v>0.94123011795006672</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="23"/>
+        <v>0.93552490357915818</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>125439069</v>
+      </c>
+      <c r="B235">
+        <v>40666094</v>
+      </c>
+      <c r="C235">
+        <v>111097735</v>
+      </c>
+      <c r="D235">
+        <v>35311331</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="22"/>
+        <v>0.88567091485667837</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="23"/>
+        <v>0.86832364573789655</v>
+      </c>
+      <c r="I235">
+        <f>AVERAGE(F225:F235)</f>
+        <v>0.90331842652166816</v>
+      </c>
+      <c r="J235">
+        <f>AVERAGE(G225:G235)</f>
+        <v>0.94684556383770113</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>71855639</v>
+      </c>
+      <c r="B238">
+        <v>33395688</v>
+      </c>
+      <c r="C238">
+        <v>68214153</v>
+      </c>
+      <c r="D238">
+        <v>31075075</v>
+      </c>
+      <c r="F238">
+        <f t="shared" ref="F238:F248" si="24">C238/A238</f>
+        <v>0.94932219585438515</v>
+      </c>
+      <c r="G238">
+        <f t="shared" ref="G238:G248" si="25">D238/B238</f>
+        <v>0.93051159778472003</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>356976764</v>
+      </c>
+      <c r="B239">
+        <v>172533520</v>
+      </c>
+      <c r="C239">
+        <v>126864590</v>
+      </c>
+      <c r="D239">
+        <v>135371804</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="24"/>
+        <v>0.3553861281570696</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="25"/>
+        <v>0.78461161633982779</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1785763181</v>
+      </c>
+      <c r="B240">
+        <v>1371613584</v>
+      </c>
+      <c r="C240">
+        <v>1755487898</v>
+      </c>
+      <c r="D240">
+        <v>1360807656</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="24"/>
+        <v>0.98304630573520602</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="25"/>
+        <v>0.99212174031662259</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>354122019</v>
+      </c>
+      <c r="B241">
+        <v>185104479</v>
+      </c>
+      <c r="C241">
+        <v>346255605</v>
+      </c>
+      <c r="D241">
+        <v>182588286</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="24"/>
+        <v>0.97778614833888655</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="25"/>
+        <v>0.98640663362878434</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>852779625</v>
+      </c>
+      <c r="B242">
+        <v>335851228</v>
+      </c>
+      <c r="C242">
+        <v>840088246</v>
+      </c>
+      <c r="D242">
+        <v>334613962</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="24"/>
+        <v>0.98511763340968661</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="25"/>
+        <v>0.99631602954865484</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>199921067</v>
+      </c>
+      <c r="B243">
+        <v>85956070</v>
+      </c>
+      <c r="C243">
+        <v>184935709</v>
+      </c>
+      <c r="D243">
+        <v>84818531</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="24"/>
+        <v>0.92504362734318535</v>
+      </c>
+      <c r="G243">
+        <f t="shared" si="25"/>
+        <v>0.98676604223529529</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>224893587</v>
+      </c>
+      <c r="B244">
+        <v>101662948</v>
+      </c>
+      <c r="C244">
+        <v>220967280</v>
+      </c>
+      <c r="D244">
+        <v>97370651</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="24"/>
+        <v>0.98254148972242594</v>
+      </c>
+      <c r="G244">
+        <f t="shared" si="25"/>
+        <v>0.9577791409314631</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>500840583</v>
+      </c>
+      <c r="B245">
+        <v>255219001</v>
+      </c>
+      <c r="C245">
+        <v>478172780</v>
+      </c>
+      <c r="D245">
+        <v>251893094</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="24"/>
+        <v>0.95474048276155765</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="25"/>
+        <v>0.98696841933018931</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>607787062</v>
+      </c>
+      <c r="B246">
+        <v>406689968</v>
+      </c>
+      <c r="C246">
+        <v>604677294</v>
+      </c>
+      <c r="D246">
+        <v>403529457</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="24"/>
+        <v>0.9948834580489968</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="25"/>
+        <v>0.99222869692227078</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>711411552</v>
+      </c>
+      <c r="B247">
+        <v>341365771</v>
+      </c>
+      <c r="C247">
+        <v>669016565</v>
+      </c>
+      <c r="D247">
+        <v>319333341</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="24"/>
+        <v>0.94040722717980263</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="25"/>
+        <v>0.93545799880445546</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>125439069</v>
+      </c>
+      <c r="B248">
+        <v>40666094</v>
+      </c>
+      <c r="C248">
+        <v>111104896</v>
+      </c>
+      <c r="D248">
+        <v>35312010</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="24"/>
+        <v>0.88572800233394589</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="25"/>
+        <v>0.86834034269433402</v>
+      </c>
+      <c r="I248">
+        <f>AVERAGE(F238:F248)</f>
+        <v>0.90309115444410437</v>
+      </c>
+      <c r="J248">
+        <f>AVERAGE(G238:G248)</f>
+        <v>0.94704620532151074</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab1handout/Lab1.xlsx
+++ b/lab1handout/Lab1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>512-8-1</t>
   </si>
@@ -110,6 +110,33 @@
   <si>
     <t>16384 2 1</t>
   </si>
+  <si>
+    <t>Lowest VirtAddr</t>
+  </si>
+  <si>
+    <t>Highest VirtAddr</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Lowest PhysAddr</t>
+  </si>
+  <si>
+    <t>Highest PhyAddr</t>
+  </si>
+  <si>
+    <t>SPECINT</t>
+  </si>
+  <si>
+    <t>SPECFP</t>
+  </si>
+  <si>
+    <t>AVG Read Hit Rate</t>
+  </si>
+  <si>
+    <t>AVG Write Hit Rate</t>
+  </si>
 </sst>
 </file>
 
@@ -124,12 +151,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -224,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -239,6 +272,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="F238" sqref="F238:J248"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,6 +571,8 @@
     <col min="1" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="17.28515625" customWidth="1"/>
     <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -555,6 +598,12 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -575,23 +624,24 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="20">
         <v>71855639</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="21">
         <v>33395688</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="21">
         <v>61357359</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="21">
         <v>29799720</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21">
         <f>C4/A4</f>
         <v>0.85389761825094901</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="21">
         <f>D4/B4</f>
         <v>0.89232238605175618</v>
       </c>
@@ -612,23 +662,24 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="21">
         <v>356976764</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="21">
         <v>172533520</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="21">
         <v>232189007</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="21">
         <v>149421218</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21">
         <f>C5/A5</f>
         <v>0.65043170989134746</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="21">
         <f>D5/B5</f>
         <v>0.86604167120684727</v>
       </c>
@@ -760,23 +811,24 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="21">
         <v>199921067</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="21">
         <v>85956070</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="21">
         <v>151336955</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="21">
         <v>78273427</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
         <f t="shared" si="2"/>
         <v>0.75698352990482987</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="21">
         <f t="shared" si="3"/>
         <v>0.91062128596619185</v>
       </c>
@@ -854,6 +906,17 @@
         <f t="shared" si="3"/>
         <v>0.83868220297594531</v>
       </c>
+      <c r="I11">
+        <f>AVERAGE(F6,F7,F8,F10,F11,F13)</f>
+        <v>0.71415669004651094</v>
+      </c>
+      <c r="J11">
+        <f>AVERAGE(G6,G7,G8,G10,G11,G13)</f>
+        <v>0.86655219927920524</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
       <c r="M11" s="9">
         <v>96001639</v>
       </c>
@@ -871,25 +934,37 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="21">
         <v>607787062</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="21">
         <v>406689968</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="21">
         <v>492319916</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="21">
         <v>363323979</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
         <f t="shared" si="2"/>
         <v>0.81002039493891032</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="21">
         <f t="shared" si="3"/>
         <v>0.89336843194519122</v>
+      </c>
+      <c r="I12" s="21">
+        <f>AVERAGE(F4,F5,F9,F12,F14)</f>
+        <v>0.74959909634423372</v>
+      </c>
+      <c r="J12" s="21">
+        <f>AVERAGE(G4,G5,G9,G12,G14)</f>
+        <v>0.85480659874694409</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="M12" s="9">
         <v>29964267</v>
@@ -945,23 +1020,24 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="21">
         <v>125439069</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="21">
         <v>40666094</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="21">
         <v>84879880</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="21">
         <v>28941214</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21">
         <f t="shared" si="2"/>
         <v>0.67666222873513193</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="21">
         <f t="shared" si="3"/>
         <v>0.7116792185647336</v>
       </c>
@@ -1015,23 +1091,24 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="20">
         <v>71855639</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="21">
         <v>33395688</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="21">
         <v>54195731</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="21">
         <v>27702825</v>
       </c>
-      <c r="F17">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
         <f t="shared" si="2"/>
         <v>0.75423072919858103</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="21">
         <f t="shared" si="3"/>
         <v>0.82953299240309109</v>
       </c>
@@ -1050,23 +1127,24 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="21">
         <v>356976764</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="21">
         <v>172533520</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="21">
         <v>221235084</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="21">
         <v>136359748</v>
       </c>
-      <c r="F18">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21">
         <f t="shared" si="2"/>
         <v>0.6197464549821512</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="21">
         <f t="shared" si="3"/>
         <v>0.7903377152451303</v>
       </c>
@@ -1114,6 +1192,17 @@
         <f t="shared" si="3"/>
         <v>0.87675998083494877</v>
       </c>
+      <c r="M20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1136,27 +1225,58 @@
         <f t="shared" si="3"/>
         <v>0.76593601438313041</v>
       </c>
+      <c r="M21" s="14">
+        <v>4194368</v>
+      </c>
+      <c r="N21" s="15">
+        <v>2245541224</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15">
+        <f>N21-M21</f>
+        <v>2241346856</v>
+      </c>
+      <c r="Q21" s="16">
+        <f>P21/1024/1024</f>
+        <v>2137.5149307250977</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="21">
         <v>199921067</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="21">
         <v>85956070</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="21">
         <v>137154368</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="21">
         <v>75957737</v>
       </c>
-      <c r="F22">
+      <c r="E22" s="21"/>
+      <c r="F22" s="21">
         <f t="shared" si="2"/>
         <v>0.68604259700154557</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="21">
         <f t="shared" si="3"/>
         <v>0.8836808965323798</v>
+      </c>
+      <c r="M22" s="14">
+        <v>4194368</v>
+      </c>
+      <c r="N22" s="15">
+        <v>2946139608</v>
+      </c>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15">
+        <f t="shared" ref="P22:P31" si="4">N22-M22</f>
+        <v>2941945240</v>
+      </c>
+      <c r="Q22" s="16">
+        <f t="shared" ref="Q22:Q31" si="5">P22/1024/1024</f>
+        <v>2805.6576156616211</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1180,6 +1300,21 @@
         <f t="shared" si="3"/>
         <v>0.74393008945599337</v>
       </c>
+      <c r="M23" s="9">
+        <v>4194368</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2373709160</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7">
+        <f t="shared" si="4"/>
+        <v>2369514792</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="5"/>
+        <v>2259.7453994750977</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1202,27 +1337,80 @@
         <f t="shared" si="3"/>
         <v>0.61947063651424605</v>
       </c>
+      <c r="I24">
+        <f>AVERAGE(F19,F20,F21,F23,F24,F26)</f>
+        <v>0.62106228913764117</v>
+      </c>
+      <c r="J24">
+        <f>AVERAGE(G19,G20,G21,G23,G24,G26)</f>
+        <v>0.79969178943286634</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="9">
+        <v>4194368</v>
+      </c>
+      <c r="N24" s="7">
+        <v>335129960</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7">
+        <f t="shared" si="4"/>
+        <v>330935592</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" si="5"/>
+        <v>315.60477447509766</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="21">
         <v>607787062</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="21">
         <v>406689968</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="21">
         <v>478264797</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="21">
         <v>335586458</v>
       </c>
-      <c r="F25">
+      <c r="E25" s="21"/>
+      <c r="F25" s="21">
         <f t="shared" si="2"/>
         <v>0.78689532387578198</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="21">
         <f t="shared" si="3"/>
         <v>0.82516532101917994</v>
+      </c>
+      <c r="I25" s="21">
+        <f>AVERAGE(F17,F18,F22,F25,F27)</f>
+        <v>0.67129604780552099</v>
+      </c>
+      <c r="J25" s="21">
+        <f>AVERAGE(G17,G18,G22,G25,G27)</f>
+        <v>0.79426785065497207</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="9">
+        <v>4194368</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3692313960</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7">
+        <f t="shared" si="4"/>
+        <v>3688119592</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" si="5"/>
+        <v>3517.2649307250977</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -1246,25 +1434,41 @@
         <f t="shared" si="3"/>
         <v>0.85538948686626892</v>
       </c>
+      <c r="M26" s="14">
+        <v>4194368</v>
+      </c>
+      <c r="N26" s="15">
+        <v>3895946600</v>
+      </c>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15">
+        <f t="shared" si="4"/>
+        <v>3891752232</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="5"/>
+        <v>3711.4641494750977</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="21">
         <v>125439069</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="21">
         <v>40666094</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="21">
         <v>63919376</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="21">
         <v>26132940</v>
       </c>
-      <c r="F27">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21">
         <f t="shared" si="2"/>
         <v>0.50956513396954506</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="21">
         <f t="shared" si="3"/>
         <v>0.64262232807507891</v>
       </c>
@@ -1276,54 +1480,133 @@
         <f>AVERAGE(G17:G27)</f>
         <v>0.79722636271564185</v>
       </c>
+      <c r="M27" s="9">
+        <v>4194368</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3930791272</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7">
+        <f t="shared" si="4"/>
+        <v>3926596904</v>
+      </c>
+      <c r="Q27" s="8">
+        <f t="shared" si="5"/>
+        <v>3744.6946182250977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M28" s="9">
+        <v>4194368</v>
+      </c>
+      <c r="N28" s="7">
+        <v>3341204840</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7">
+        <f t="shared" si="4"/>
+        <v>3337010472</v>
+      </c>
+      <c r="Q28" s="8">
+        <f t="shared" si="5"/>
+        <v>3182.4211807250977</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
+      <c r="M29" s="14">
+        <v>4194368</v>
+      </c>
+      <c r="N29" s="15">
+        <v>4047462376</v>
+      </c>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15">
+        <f t="shared" si="4"/>
+        <v>4043268008</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="5"/>
+        <v>3855.9608535766602</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="20">
         <v>71855639</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="21">
         <v>33395688</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="21">
         <v>64493640</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="21">
         <v>32017592</v>
       </c>
-      <c r="F30">
+      <c r="E30" s="21"/>
+      <c r="F30" s="21">
         <f t="shared" si="2"/>
         <v>0.89754458936757908</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="21">
         <f t="shared" si="3"/>
         <v>0.95873431324427272</v>
       </c>
+      <c r="M30" s="9">
+        <v>4194368</v>
+      </c>
+      <c r="N30" s="7">
+        <v>3159068008</v>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7">
+        <f t="shared" si="4"/>
+        <v>3154873640</v>
+      </c>
+      <c r="Q30" s="8">
+        <f t="shared" si="5"/>
+        <v>3008.7219619750977</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="21">
         <v>356976764</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="21">
         <v>172533520</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="21">
         <v>282392225</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="21">
         <v>159525543</v>
       </c>
-      <c r="F31">
+      <c r="E31" s="21"/>
+      <c r="F31" s="21">
         <f t="shared" si="2"/>
         <v>0.791066123844408</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="21">
         <f t="shared" si="3"/>
         <v>0.92460608813869904</v>
+      </c>
+      <c r="M31" s="14">
+        <v>4194368</v>
+      </c>
+      <c r="N31" s="15">
+        <v>3801691608</v>
+      </c>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15">
+        <f t="shared" si="4"/>
+        <v>3797497240</v>
+      </c>
+      <c r="Q31" s="16">
+        <f t="shared" si="5"/>
+        <v>3621.5755844116211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -1347,8 +1630,13 @@
         <f t="shared" si="3"/>
         <v>0.97083119366365211</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M32" s="9"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="8"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>354122019</v>
       </c>
@@ -1369,8 +1657,17 @@
         <f t="shared" si="3"/>
         <v>0.94304053590030279</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="8"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>852779625</v>
       </c>
@@ -1391,30 +1688,61 @@
         <f t="shared" si="3"/>
         <v>0.88848027377169514</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="M34" s="14">
+        <v>6393496</v>
+      </c>
+      <c r="N34" s="15">
+        <v>355240552</v>
+      </c>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15">
+        <f>N34-M34</f>
+        <v>348847056</v>
+      </c>
+      <c r="Q34" s="16">
+        <f t="shared" ref="Q34:Q44" si="6">P34/1024/1024</f>
+        <v>332.68647766113281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
         <v>199921067</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="21">
         <v>85956070</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="21">
         <v>163851454</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="21">
         <v>81184559</v>
       </c>
-      <c r="F35">
+      <c r="E35" s="21"/>
+      <c r="F35" s="21">
         <f t="shared" si="2"/>
         <v>0.81958072982873786</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="21">
         <f t="shared" si="3"/>
         <v>0.94448895813873301</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M35" s="14">
+        <v>1108999712</v>
+      </c>
+      <c r="N35" s="15">
+        <v>2945923576</v>
+      </c>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15">
+        <f t="shared" ref="P35:P36" si="7">N35-M35</f>
+        <v>1836923864</v>
+      </c>
+      <c r="Q35" s="16">
+        <f t="shared" si="6"/>
+        <v>1751.8271102905273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>224893587</v>
       </c>
@@ -1435,8 +1763,23 @@
         <f t="shared" si="3"/>
         <v>0.88774075290439147</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M36" s="9">
+        <v>1097333864</v>
+      </c>
+      <c r="N36" s="7">
+        <v>2052009504</v>
+      </c>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7">
+        <f t="shared" si="7"/>
+        <v>954675640</v>
+      </c>
+      <c r="Q36" s="8">
+        <f t="shared" si="6"/>
+        <v>910.44963836669922</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>500840583</v>
       </c>
@@ -1457,30 +1800,83 @@
         <f t="shared" si="3"/>
         <v>0.86469561488488078</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="I37">
+        <f>AVERAGE(F32,F33,F34,F36,F37,F39)</f>
+        <v>0.77842450985357425</v>
+      </c>
+      <c r="J37">
+        <f>AVERAGE(G32,G33,G34,G36,G37,G39)</f>
+        <v>0.91951592263486137</v>
+      </c>
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" s="9">
+        <v>8005440</v>
+      </c>
+      <c r="N37" s="7">
+        <v>265055040</v>
+      </c>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7">
+        <f t="shared" ref="P37:P44" si="8">N37-M37</f>
+        <v>257049600</v>
+      </c>
+      <c r="Q37" s="8">
+        <f t="shared" si="6"/>
+        <v>245.1416015625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
         <v>607787062</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="21">
         <v>406689967</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="21">
         <v>508781843</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="21">
         <v>361604085</v>
       </c>
-      <c r="F38">
+      <c r="E38" s="21"/>
+      <c r="F38" s="21">
         <f t="shared" si="2"/>
         <v>0.83710541867375254</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="21">
         <f t="shared" si="3"/>
         <v>0.88913942890555742</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="21">
+        <f>AVERAGE(F30,F31,F35,F38,F40)</f>
+        <v>0.81261728411279233</v>
+      </c>
+      <c r="J38" s="21">
+        <f>AVERAGE(G30,G31,G35,G38,G40)</f>
+        <v>0.89184920068914975</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="9">
+        <v>7109000</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2079546008</v>
+      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7">
+        <f t="shared" si="8"/>
+        <v>2072437008</v>
+      </c>
+      <c r="Q38" s="8">
+        <f t="shared" si="6"/>
+        <v>1976.4299468994141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>711411552</v>
       </c>
@@ -1501,25 +1897,41 @@
         <f t="shared" si="3"/>
         <v>0.9623071646842456</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="M39" s="14">
+        <v>4226600</v>
+      </c>
+      <c r="N39" s="15">
+        <v>3744663704</v>
+      </c>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15">
+        <f t="shared" si="8"/>
+        <v>3740437104</v>
+      </c>
+      <c r="Q39" s="16">
+        <f t="shared" si="6"/>
+        <v>3567.1587982177734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
         <v>125439069</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="21">
         <v>40666094</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="21">
         <v>90038854</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="21">
         <v>30185515</v>
       </c>
-      <c r="F40">
+      <c r="E40" s="21"/>
+      <c r="F40" s="21">
         <f t="shared" si="2"/>
         <v>0.71778955884948414</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="21">
         <f t="shared" si="3"/>
         <v>0.74227721501848687</v>
       </c>
@@ -1531,57 +1943,136 @@
         <f>AVERAGE(G30:G40)</f>
         <v>0.90694013993226508</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M40" s="9">
+        <v>7705520</v>
+      </c>
+      <c r="N40" s="7">
+        <v>2683887928</v>
+      </c>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7">
+        <f t="shared" si="8"/>
+        <v>2676182408</v>
+      </c>
+      <c r="Q40" s="8">
+        <f t="shared" si="6"/>
+        <v>2552.206428527832</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M41" s="9">
+        <v>4240896</v>
+      </c>
+      <c r="N41" s="7">
+        <v>3341196160</v>
+      </c>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7">
+        <f t="shared" si="8"/>
+        <v>3336955264</v>
+      </c>
+      <c r="Q41" s="8">
+        <f t="shared" si="6"/>
+        <v>3182.3685302734375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="M42" s="14">
+        <v>19295536</v>
+      </c>
+      <c r="N42" s="15">
+        <v>1965270696</v>
+      </c>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15">
+        <f t="shared" si="8"/>
+        <v>1945975160</v>
+      </c>
+      <c r="Q42" s="16">
+        <f t="shared" si="6"/>
+        <v>1855.826530456543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
         <v>71855639</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="21">
         <v>33395688</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="21">
         <v>53140269</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="21">
         <v>26742231</v>
       </c>
-      <c r="F43">
+      <c r="E43" s="21"/>
+      <c r="F43" s="21">
         <f t="shared" si="2"/>
         <v>0.73954208381613584</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="21">
         <f t="shared" si="3"/>
         <v>0.80076897951615789</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="M43" s="9">
+        <v>6687616</v>
+      </c>
+      <c r="N43" s="7">
+        <v>2358677256</v>
+      </c>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7">
+        <f t="shared" si="8"/>
+        <v>2351989640</v>
+      </c>
+      <c r="Q43" s="8">
+        <f t="shared" si="6"/>
+        <v>2243.032112121582</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="21">
         <v>356976764</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="21">
         <v>172533520</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="21">
         <v>214890394</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="21">
         <v>134267995</v>
       </c>
-      <c r="F44">
+      <c r="E44" s="21"/>
+      <c r="F44" s="21">
         <f t="shared" si="2"/>
         <v>0.60197305727159323</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="21">
         <f t="shared" si="3"/>
         <v>0.77821396677005139</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M44" s="17">
+        <v>1371295264</v>
+      </c>
+      <c r="N44" s="18">
+        <v>3801254680</v>
+      </c>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18">
+        <f t="shared" si="8"/>
+        <v>2429959416</v>
+      </c>
+      <c r="Q44" s="19">
+        <f t="shared" si="6"/>
+        <v>2317.3898849487305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1785763181</v>
       </c>
@@ -1603,7 +2094,7 @@
         <v>0.93646637652430831</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>354122019</v>
       </c>
@@ -1625,7 +2116,7 @@
         <v>0.85443616584478688</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>852779625</v>
       </c>
@@ -1647,29 +2138,30 @@
         <v>0.77527684966511423</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
         <v>199921067</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="21">
         <v>85956070</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="21">
         <v>129344310</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="21">
         <v>75536225</v>
       </c>
-      <c r="F48">
+      <c r="E48" s="21"/>
+      <c r="F48" s="21">
         <f t="shared" si="2"/>
         <v>0.64697688913395002</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="21">
         <f t="shared" si="3"/>
         <v>0.87877708927362552</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>224893587</v>
       </c>
@@ -1691,7 +2183,7 @@
         <v>0.72505304489104527</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>500840583</v>
       </c>
@@ -1712,30 +2204,53 @@
         <f t="shared" si="3"/>
         <v>0.69585043552458703</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="I50">
+        <f>AVERAGE(F45,F46,F47,F49,F50,F52)</f>
+        <v>0.61754678430019905</v>
+      </c>
+      <c r="J50">
+        <f>AVERAGE(G45,G46,G47,G49,G50,G52)</f>
+        <v>0.80601588505747646</v>
+      </c>
+      <c r="K50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
         <v>607787062</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="21">
         <v>406689967</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="21">
         <v>427244270</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="21">
         <v>321037702</v>
       </c>
-      <c r="F51">
+      <c r="E51" s="21"/>
+      <c r="F51" s="21">
         <f t="shared" si="2"/>
         <v>0.70295058370294827</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="21">
         <f t="shared" si="3"/>
         <v>0.78939174321947314</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="21">
+        <f>AVERAGE(F43,F44,F48,F51,F53)</f>
+        <v>0.64261379803071039</v>
+      </c>
+      <c r="J51" s="21">
+        <f>AVERAGE(G43,G44,G48,G51,G53)</f>
+        <v>0.76831461840474058</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>711411552</v>
       </c>
@@ -1757,24 +2272,25 @@
         <v>0.84901243789501646</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
         <v>125439069</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="21">
         <v>40666094</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="21">
         <v>65432327</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="21">
         <v>24172793</v>
       </c>
-      <c r="F53">
+      <c r="E53" s="21"/>
+      <c r="F53" s="21">
         <f t="shared" si="2"/>
         <v>0.52162637622892438</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="21">
         <f t="shared" si="3"/>
         <v>0.59442131324439473</v>
       </c>
@@ -1787,12 +2303,12 @@
         <v>0.78887894566986916</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54149</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>71855639</v>
       </c>
@@ -1814,7 +2330,7 @@
         <v>0.84005983047871335</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>356976764</v>
       </c>
@@ -1836,7 +2352,7 @@
         <v>0.78448157204466706</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1785763181</v>
       </c>
@@ -1858,7 +2374,7 @@
         <v>0.94247951105156158</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>354122019</v>
       </c>
@@ -1880,7 +2396,7 @@
         <v>0.88322700716496438</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>852779625</v>
       </c>
@@ -1902,7 +2418,7 @@
         <v>0.81447101929310195</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>199921067</v>
       </c>
@@ -1924,7 +2440,7 @@
         <v>0.87784812637432119</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>224893587</v>
       </c>
@@ -1946,7 +2462,7 @@
         <v>0.72813463957389868</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>500840583</v>
       </c>
@@ -1967,8 +2483,19 @@
         <f t="shared" si="3"/>
         <v>0.73288094643078705</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f>AVERAGE(F58,F59,F60,F62,F63,F65)</f>
+        <v>0.64687661406375263</v>
+      </c>
+      <c r="J63">
+        <f>AVERAGE(G58,G59,G60,G62,G63,G65)</f>
+        <v>0.82614559532017928</v>
+      </c>
+      <c r="K63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>607787062</v>
       </c>
@@ -1989,8 +2516,19 @@
         <f t="shared" si="3"/>
         <v>0.82810786471133213</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f>AVERAGE(F56,F57,F61,F64,F66)</f>
+        <v>0.69409749476551097</v>
+      </c>
+      <c r="J64">
+        <f>AVERAGE(G56,G57,G61,G64,G66)</f>
+        <v>0.79499919060463475</v>
+      </c>
+      <c r="K64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>711411552</v>
       </c>
@@ -2012,7 +2550,7 @@
         <v>0.85568044840676194</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>125439069</v>
       </c>
@@ -2042,12 +2580,12 @@
         <v>0.81198813863129538</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>71855639</v>
       </c>
@@ -2069,7 +2607,7 @@
         <v>0.94603240394388644</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>356976764</v>
       </c>
@@ -2083,15 +2621,15 @@
         <v>158966107</v>
       </c>
       <c r="F70">
-        <f t="shared" ref="F70:F118" si="4">C70/A70</f>
+        <f t="shared" ref="F70:F118" si="9">C70/A70</f>
         <v>0.78289243778342954</v>
       </c>
       <c r="G70">
-        <f t="shared" ref="G70:G118" si="5">D70/B70</f>
+        <f t="shared" ref="G70:G118" si="10">D70/B70</f>
         <v>0.92136361096672692</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1785763181</v>
       </c>
@@ -2105,15 +2643,15 @@
         <v>1321243782</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.90719951404351418</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.96327697349489072</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>354122019</v>
       </c>
@@ -2127,15 +2665,15 @@
         <v>174240704</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.83766798189411651</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.94131003712773476</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>852779625</v>
       </c>
@@ -2149,15 +2687,15 @@
         <v>271317648</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.65212716591346798</v>
       </c>
       <c r="G73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.80785069512980912</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>199921067</v>
       </c>
@@ -2171,15 +2709,15 @@
         <v>83263647</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.87562052177322558</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.96867675546357579</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>224893587</v>
       </c>
@@ -2193,15 +2731,15 @@
         <v>92368018</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.76799535862265378</v>
       </c>
       <c r="G75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.90857111481756359</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>500840583</v>
       </c>
@@ -2215,15 +2753,26 @@
         <v>218392196</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.78031058836939338</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.8557050812999617</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <f>AVERAGE(F71,F72,F73,F75,F76,F78)</f>
+        <v>0.79631166345460358</v>
+      </c>
+      <c r="J76">
+        <f>AVERAGE(G71,G72,G73,G75,G76,G78)</f>
+        <v>0.9055166726417615</v>
+      </c>
+      <c r="K76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>607787062</v>
       </c>
@@ -2237,15 +2786,26 @@
         <v>368739228</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.9241065796165302</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.90668385505884919</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f>AVERAGE(F69,F70,F74,F77,F79)</f>
+        <v>0.85734326906125968</v>
+      </c>
+      <c r="J77">
+        <f>AVERAGE(G69,G70,G74,G77,G79)</f>
+        <v>0.91607059556289183</v>
+      </c>
+      <c r="K77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>711411552</v>
       </c>
@@ -2259,15 +2819,15 @@
         <v>326477490</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.83256937188447566</v>
       </c>
       <c r="G78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.95638613398060934</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>125439069</v>
       </c>
@@ -2281,11 +2841,11 @@
         <v>34061772</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.77922542617085266</v>
       </c>
       <c r="G79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.83759635238142127</v>
       </c>
       <c r="I79">
@@ -2297,12 +2857,12 @@
         <v>0.91031391033318454</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>71855639</v>
       </c>
@@ -2316,15 +2876,15 @@
         <v>32358317</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.95649830627767429</v>
       </c>
       <c r="G82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.96893697773197551</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>356976764</v>
       </c>
@@ -2338,15 +2898,15 @@
         <v>163890634</v>
       </c>
       <c r="F83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.84756984070817565</v>
       </c>
       <c r="G83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.94990604724229821</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1785763181</v>
       </c>
@@ -2360,15 +2920,15 @@
         <v>1344242415</v>
       </c>
       <c r="F84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.9468523256556044</v>
       </c>
       <c r="G84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.98004454802774832</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>354122019</v>
       </c>
@@ -2382,15 +2942,15 @@
         <v>178401341</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.90056655019805476</v>
       </c>
       <c r="G85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.96378727280823928</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>852779625</v>
       </c>
@@ -2404,15 +2964,15 @@
         <v>315907244</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.79156663833285179</v>
       </c>
       <c r="G86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.94061661135269092</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>199921067</v>
       </c>
@@ -2426,15 +2986,15 @@
         <v>83123988</v>
       </c>
       <c r="F87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.905009345513347</v>
       </c>
       <c r="G87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.96705198364699552</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>224893587</v>
       </c>
@@ -2448,15 +3008,15 @@
         <v>95167958</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.84764621589676548</v>
       </c>
       <c r="G88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.93611251564335907</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>500840583</v>
       </c>
@@ -2470,15 +3030,26 @@
         <v>242538856</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.85392256641471087</v>
       </c>
       <c r="G89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.95031661063511486</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f>AVERAGE(F84,F85,F86,F88,F89,F91)</f>
+        <v>0.87284944046281598</v>
+      </c>
+      <c r="J89">
+        <f>AVERAGE(G84,G85,G86,G88,G89,G91)</f>
+        <v>0.957267692827516</v>
+      </c>
+      <c r="K89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>607787062</v>
       </c>
@@ -2492,15 +3063,26 @@
         <v>397465283</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.94078289215047495</v>
       </c>
       <c r="G90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.97731764802223986</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <f>AVERAGE(F82,F83,F87,F90,F92)</f>
+        <v>0.90600468284795177</v>
+      </c>
+      <c r="J90">
+        <f>AVERAGE(G82,G83,G87,G90,G92)</f>
+        <v>0.95050303595449637</v>
+      </c>
+      <c r="K90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>711411552</v>
       </c>
@@ -2514,15 +3096,15 @@
         <v>332056248</v>
       </c>
       <c r="F91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.89654234627890894</v>
       </c>
       <c r="G91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.97272859849794369</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>125439069</v>
       </c>
@@ -2536,11 +3118,11 @@
         <v>36164460</v>
       </c>
       <c r="F92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.8801630295900873</v>
       </c>
       <c r="G92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.88930252312897329</v>
       </c>
       <c r="I92">
@@ -2552,12 +3134,12 @@
         <v>0.95419284879432531</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>71855639</v>
       </c>
@@ -2571,15 +3153,15 @@
         <v>32854202</v>
       </c>
       <c r="F95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.97700475532616171</v>
       </c>
       <c r="G95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.98378575102270693</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>356976764</v>
       </c>
@@ -2593,15 +3175,15 @@
         <v>166849073</v>
       </c>
       <c r="F96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.90336755363718857</v>
       </c>
       <c r="G96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.96705308626404884</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1785763181</v>
       </c>
@@ -2615,15 +3197,15 @@
         <v>1352871361</v>
       </c>
       <c r="F97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.96669616574427508</v>
       </c>
       <c r="G97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.98633563911977118</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>354122019</v>
       </c>
@@ -2637,15 +3219,15 @@
         <v>181021518</v>
       </c>
       <c r="F98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.94070499185762291</v>
       </c>
       <c r="G98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.97794239760130275</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>852779625</v>
       </c>
@@ -2659,15 +3241,15 @@
         <v>323277923</v>
       </c>
       <c r="F99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.83840549778613671</v>
       </c>
       <c r="G99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.96256287322552236</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>199921067</v>
       </c>
@@ -2681,15 +3263,15 @@
         <v>84981600</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.96051965348904422</v>
       </c>
       <c r="G100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.98866316247357522</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>224893587</v>
       </c>
@@ -2703,15 +3285,15 @@
         <v>98772613</v>
       </c>
       <c r="F101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.91866694269054461</v>
       </c>
       <c r="G101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.97156943550368025</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>500840583</v>
       </c>
@@ -2725,15 +3307,26 @@
         <v>248028191</v>
       </c>
       <c r="F102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.88421207472318597</v>
       </c>
       <c r="G102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.97182494261075802</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f>AVERAGE(F97,F98,F99,F101,F102,F104)</f>
+        <v>0.9171127851482298</v>
+      </c>
+      <c r="J102">
+        <f>AVERAGE(G97,G98,G99,G101,G102,G104)</f>
+        <v>0.97587174758086792</v>
+      </c>
+      <c r="K102" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>607787062</v>
       </c>
@@ -2747,15 +3340,26 @@
         <v>401546869</v>
       </c>
       <c r="F103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.95661287538233253</v>
       </c>
       <c r="G103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.9873537598547304</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <f>AVERAGE(F95,F96,F100,F103,F105)</f>
+        <v>0.94738432470506329</v>
+      </c>
+      <c r="J103">
+        <f>AVERAGE(G95,G96,G100,G103,G105)</f>
+        <v>0.97415643334197521</v>
+      </c>
+      <c r="K103" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>711411552</v>
       </c>
@@ -2769,15 +3373,15 @@
         <v>336243645</v>
       </c>
       <c r="F104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.95399103808761321</v>
       </c>
       <c r="G104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.98499519742417296</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>125439069</v>
       </c>
@@ -2791,11 +3395,11 @@
         <v>38385800</v>
       </c>
       <c r="F105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.93941678569058895</v>
       </c>
       <c r="G105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.94392640709481468</v>
       </c>
       <c r="I105">
@@ -2807,12 +3411,12 @@
         <v>0.97509205929046205</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>71855639</v>
       </c>
@@ -2826,15 +3430,15 @@
         <v>31074256</v>
       </c>
       <c r="F108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.94936820476956585</v>
       </c>
       <c r="G108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.93048707366052763</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>356976764</v>
       </c>
@@ -2848,15 +3452,15 @@
         <v>135136713</v>
       </c>
       <c r="F109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.35394418556609469</v>
       </c>
       <c r="G109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.78324903473829321</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1785763181</v>
       </c>
@@ -2870,15 +3474,15 @@
         <v>1360812008</v>
       </c>
       <c r="F110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.98313671245974688</v>
       </c>
       <c r="G110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.99212491322191509</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>354122019</v>
       </c>
@@ -2892,15 +3496,15 @@
         <v>181880640</v>
       </c>
       <c r="F111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.97688480647683196</v>
       </c>
       <c r="G111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.98258367913398792</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>852779625</v>
       </c>
@@ -2914,15 +3518,15 @@
         <v>335066351</v>
       </c>
       <c r="F112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.98555977342915524</v>
       </c>
       <c r="G112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.99766302179487643</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>199921067</v>
       </c>
@@ -2936,15 +3540,15 @@
         <v>84818669</v>
       </c>
       <c r="F113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.92499520323188356</v>
       </c>
       <c r="G113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.98676764770655523</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>224893587</v>
       </c>
@@ -2958,15 +3562,15 @@
         <v>97429866</v>
       </c>
       <c r="F114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.98323675632422547</v>
       </c>
       <c r="G114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.95836160485922561</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>500840583</v>
       </c>
@@ -2980,15 +3584,26 @@
         <v>251896942</v>
       </c>
       <c r="F115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.9548655445119949</v>
       </c>
       <c r="G115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.98698349657751383</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <f>AVERAGE(F110,F111,F112,F114,F115,F117)</f>
+        <v>0.9707282865705511</v>
+      </c>
+      <c r="J115">
+        <f>AVERAGE(G110,G111,G112,G114,G115,G117)</f>
+        <v>0.97558829752349963</v>
+      </c>
+      <c r="K115" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>607787062</v>
       </c>
@@ -3002,15 +3617,26 @@
         <v>403659938</v>
       </c>
       <c r="F116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99928125156438419</v>
       </c>
       <c r="G116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.99254953345689612</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <f>AVERAGE(F108,F109,F113,F116,F118)</f>
+        <v>0.82266164116402085</v>
+      </c>
+      <c r="J116">
+        <f>AVERAGE(G108,G109,G113,G116,G118)</f>
+        <v>0.91227859858066807</v>
+      </c>
+      <c r="K116" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>711411552</v>
       </c>
@@ -3024,15 +3650,15 @@
         <v>319454550</v>
       </c>
       <c r="F117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.94068612622135206</v>
       </c>
       <c r="G117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.93581306955347909</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>125439069</v>
       </c>
@@ -3046,11 +3672,11 @@
         <v>35311984</v>
       </c>
       <c r="F118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.88571936068817603</v>
       </c>
       <c r="G118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.86833970334106836</v>
       </c>
       <c r="I118">
@@ -3062,12 +3688,12 @@
         <v>0.94681116164039447</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>71855639</v>
       </c>
@@ -3081,15 +3707,15 @@
         <v>31073616</v>
       </c>
       <c r="F121">
-        <f t="shared" ref="F121:F131" si="6">C121/A121</f>
+        <f t="shared" ref="F121:F131" si="11">C121/A121</f>
         <v>0.94927970788764404</v>
       </c>
       <c r="G121">
-        <f t="shared" ref="G121:G131" si="7">D121/B121</f>
+        <f t="shared" ref="G121:G131" si="12">D121/B121</f>
         <v>0.93046790950975466</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>356976764</v>
       </c>
@@ -3103,15 +3729,15 @@
         <v>135136433</v>
       </c>
       <c r="F122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.35314801329758261</v>
       </c>
       <c r="G122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.78324741186524216</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1785763181</v>
       </c>
@@ -3125,15 +3751,15 @@
         <v>1360810160</v>
       </c>
       <c r="F123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.98313203322787068</v>
       </c>
       <c r="G123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.99212356590367512</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>354122019</v>
       </c>
@@ -3147,15 +3773,15 @@
         <v>182397152</v>
       </c>
       <c r="F124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.97730646339729588</v>
       </c>
       <c r="G124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.98537406001936889</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>852779625</v>
       </c>
@@ -3169,15 +3795,15 @@
         <v>335383151</v>
       </c>
       <c r="F125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.98653310812860939</v>
       </c>
       <c r="G125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.99860629659511024</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>199921067</v>
       </c>
@@ -3191,15 +3817,15 @@
         <v>84820137</v>
       </c>
       <c r="F126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.92497786638963864</v>
       </c>
       <c r="G126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.98678472619792879</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>224893587</v>
       </c>
@@ -3213,15 +3839,15 @@
         <v>97423069</v>
       </c>
       <c r="F127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.9827786374362022</v>
       </c>
       <c r="G127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.95829474667604564</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>500840583</v>
       </c>
@@ -3235,15 +3861,26 @@
         <v>251893672</v>
       </c>
       <c r="F128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.95469763080281378</v>
       </c>
       <c r="G128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.98697068405185084</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <f>AVERAGE(F123,F124,F125,F127,F128,F130)</f>
+        <v>0.97091596707463934</v>
+      </c>
+      <c r="J128">
+        <f>AVERAGE(G123,G124,G125,G127,G128,G130)</f>
+        <v>0.97617408681093265</v>
+      </c>
+      <c r="K128" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>607787062</v>
       </c>
@@ -3257,15 +3894,26 @@
         <v>403571314</v>
       </c>
       <c r="F129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.99903482808918365</v>
       </c>
       <c r="G129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.99233161807423786</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <f>AVERAGE(F121,F122,F126,F129,F131)</f>
+        <v>0.82243253244309611</v>
+      </c>
+      <c r="J129">
+        <f>AVERAGE(G121,G122,G126,G129,G131)</f>
+        <v>0.91223193278107373</v>
+      </c>
+      <c r="K129" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>711411552</v>
       </c>
@@ -3279,15 +3927,15 @@
         <v>319407475</v>
       </c>
       <c r="F130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.9410479294550449</v>
       </c>
       <c r="G130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.93567516761954439</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>125439069</v>
       </c>
@@ -3301,11 +3949,11 @@
         <v>35311508</v>
       </c>
       <c r="F131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.88572224655143128</v>
       </c>
       <c r="G131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.86832799825820495</v>
       </c>
       <c r="I131">
@@ -3317,12 +3965,12 @@
         <v>0.94710947134281487</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>71855639</v>
       </c>
@@ -3336,15 +3984,15 @@
         <v>31074890</v>
       </c>
       <c r="F134">
-        <f t="shared" ref="F134:F144" si="8">C134/A134</f>
+        <f t="shared" ref="F134:F144" si="13">C134/A134</f>
         <v>0.9493073188034693</v>
       </c>
       <c r="G134">
-        <f t="shared" ref="G134:G144" si="9">D134/B134</f>
+        <f t="shared" ref="G134:G144" si="14">D134/B134</f>
         <v>0.93050605814738718</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>356976764</v>
       </c>
@@ -3358,15 +4006,15 @@
         <v>135137059</v>
       </c>
       <c r="F135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.35347459477782706</v>
       </c>
       <c r="G135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.78325104014570623</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1785763181</v>
       </c>
@@ -3380,15 +4028,15 @@
         <v>1360816396</v>
       </c>
       <c r="F136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.98315573345892615</v>
       </c>
       <c r="G136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.99212811237366694</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>354122019</v>
       </c>
@@ -3402,15 +4050,15 @@
         <v>182044877</v>
       </c>
       <c r="F137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.97718170696411844</v>
       </c>
       <c r="G137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.98347094561661041</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>852779625</v>
       </c>
@@ -3424,15 +4072,15 @@
         <v>334450704</v>
       </c>
       <c r="F138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.98340388702415349</v>
       </c>
       <c r="G138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.99582992741059739</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>199921067</v>
       </c>
@@ -3446,15 +4094,15 @@
         <v>84815740</v>
       </c>
       <c r="F139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.92480771423653918</v>
       </c>
       <c r="G139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.98673357216075608</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>224893587</v>
       </c>
@@ -3468,15 +4116,15 @@
         <v>97457077</v>
       </c>
       <c r="F140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.98291695618692765</v>
       </c>
       <c r="G140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.95862926382972879</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>500840583</v>
       </c>
@@ -3490,15 +4138,26 @@
         <v>251886179</v>
       </c>
       <c r="F141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.95473480630462404</v>
       </c>
       <c r="G141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.98694132495252573</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <f>AVERAGE(F136,F137,F138,F140,F141,F143)</f>
+        <v>0.97017528564473876</v>
+      </c>
+      <c r="J141">
+        <f>AVERAGE(G136,G137,G138,G140,G141,G143)</f>
+        <v>0.97529486372536534</v>
+      </c>
+      <c r="K141" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>607787062</v>
       </c>
@@ -3512,15 +4171,26 @@
         <v>403740665</v>
       </c>
       <c r="F142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.99929873630643362</v>
       </c>
       <c r="G142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.9927480310997</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <f>AVERAGE(F134,F135,F139,F142,F144)</f>
+        <v>0.82252027263161731</v>
+      </c>
+      <c r="J142">
+        <f>AVERAGE(G134,G135,G139,G142,G144)</f>
+        <v>0.91231648754765859</v>
+      </c>
+      <c r="K142" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>711411552</v>
       </c>
@@ -3534,15 +4204,15 @@
         <v>319098348</v>
       </c>
       <c r="F143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.9396586239296828</v>
       </c>
       <c r="G143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.93476960816906274</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>125439069</v>
       </c>
@@ -3556,11 +4226,11 @@
         <v>35312148</v>
       </c>
       <c r="F144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.88571299903381773</v>
       </c>
       <c r="G144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.86834373618474403</v>
       </c>
       <c r="I144">
@@ -3572,12 +4242,12 @@
         <v>0.94666832909913512</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>71855639</v>
       </c>
@@ -3591,15 +4261,15 @@
         <v>31071594</v>
       </c>
       <c r="F147">
-        <f t="shared" ref="F147:F157" si="10">C147/A147</f>
+        <f t="shared" ref="F147:F157" si="15">C147/A147</f>
         <v>0.94924519424286247</v>
       </c>
       <c r="G147">
-        <f t="shared" ref="G147:G157" si="11">D147/B147</f>
+        <f t="shared" ref="G147:G157" si="16">D147/B147</f>
         <v>0.93040736277090619</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>356976764</v>
       </c>
@@ -3613,15 +4283,15 @@
         <v>135135609</v>
       </c>
       <c r="F148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.35175767070374364</v>
       </c>
       <c r="G148">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.78324263598169219</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1785763181</v>
       </c>
@@ -3635,15 +4305,15 @@
         <v>1360813813</v>
       </c>
       <c r="F149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.98313800434437337</v>
       </c>
       <c r="G149">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.99212622919021776</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>354122019</v>
       </c>
@@ -3657,15 +4327,15 @@
         <v>182523975</v>
       </c>
       <c r="F150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.97716466481571707</v>
       </c>
       <c r="G150">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.98605920281377957</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>852779625</v>
       </c>
@@ -3679,15 +4349,15 @@
         <v>335137406</v>
       </c>
       <c r="F151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.98538496390553421</v>
       </c>
       <c r="G151">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.99787458868544021</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>199921067</v>
       </c>
@@ -3701,15 +4371,15 @@
         <v>84818153</v>
       </c>
       <c r="F152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.92502342436977891</v>
       </c>
       <c r="G152">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.98676164464010507</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>224893587</v>
       </c>
@@ -3723,15 +4393,15 @@
         <v>97446822</v>
       </c>
       <c r="F153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.98273310923712553</v>
       </c>
       <c r="G153">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.95852839128764988</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>500840583</v>
       </c>
@@ -3745,15 +4415,26 @@
         <v>251908910</v>
       </c>
       <c r="F154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.95467306809679997</v>
       </c>
       <c r="G154">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.98703038963779977</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <f>AVERAGE(F149,F150,F151,F153,F154,F156)</f>
+        <v>0.97072790345925719</v>
+      </c>
+      <c r="J154">
+        <f>AVERAGE(G149,G150,G151,G153,G154,G156)</f>
+        <v>0.97623467291597221</v>
+      </c>
+      <c r="K154" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>607787062</v>
       </c>
@@ -3767,15 +4448,26 @@
         <v>403723627</v>
       </c>
       <c r="F155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.99929989131621233</v>
       </c>
       <c r="G155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.99270613677886443</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <f>AVERAGE(F147,F148,F152,F155,F157)</f>
+        <v>0.82221292206797048</v>
+      </c>
+      <c r="J155">
+        <f>AVERAGE(G147,G148,G152,G155,G157)</f>
+        <v>0.91229153604734348</v>
+      </c>
+      <c r="K155" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>711411552</v>
       </c>
@@ -3789,15 +4481,15 @@
         <v>319446414</v>
       </c>
       <c r="F156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.94127361035599266</v>
       </c>
       <c r="G156">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.93578923588094598</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>125439069</v>
       </c>
@@ -3811,11 +4503,11 @@
         <v>35311992</v>
       </c>
       <c r="F157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.88573842970725492</v>
       </c>
       <c r="G157">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.86833990006515005</v>
       </c>
       <c r="I157">
@@ -3827,12 +4519,12 @@
         <v>0.94716961070295913</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>71855639</v>
       </c>
@@ -3846,15 +4538,15 @@
         <v>33163492</v>
       </c>
       <c r="F160">
-        <f t="shared" ref="F160:F170" si="12">C160/A160</f>
+        <f t="shared" ref="F160:F170" si="17">C160/A160</f>
         <v>0.98110934619898094</v>
       </c>
       <c r="G160">
-        <f t="shared" ref="G160:G170" si="13">D160/B160</f>
+        <f t="shared" ref="G160:G170" si="18">D160/B160</f>
         <v>0.99304712632361403</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>356976764</v>
       </c>
@@ -3868,15 +4560,15 @@
         <v>170005540</v>
       </c>
       <c r="F161">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.93933664545180318</v>
       </c>
       <c r="G161">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.98534789065916006</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1785763181</v>
       </c>
@@ -3890,15 +4582,15 @@
         <v>1352067983</v>
       </c>
       <c r="F162">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.96092431026552783</v>
       </c>
       <c r="G162">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.98574992167764941</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>354122019</v>
       </c>
@@ -3912,15 +4604,15 @@
         <v>180460632</v>
       </c>
       <c r="F163">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.91000371823814774</v>
       </c>
       <c r="G163">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.97491229264095769</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>852779625</v>
       </c>
@@ -3934,15 +4626,15 @@
         <v>318122142</v>
       </c>
       <c r="F164">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.76663829298219921</v>
       </c>
       <c r="G164">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.94721148972544478</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>199921067</v>
       </c>
@@ -3956,15 +4648,15 @@
         <v>84696667</v>
       </c>
       <c r="F165">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.92659870107636033</v>
       </c>
       <c r="G165">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.98534829477429575</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>224893587</v>
       </c>
@@ -3978,15 +4670,15 @@
         <v>97511567</v>
       </c>
       <c r="F166">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.85801911728145452</v>
       </c>
       <c r="G166">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.95916525064765978</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>500840583</v>
       </c>
@@ -4000,15 +4692,26 @@
         <v>246658971</v>
       </c>
       <c r="F167">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.90773780606353138</v>
       </c>
       <c r="G167">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.96646005992320294</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <f>AVERAGE(F162,F163,F164,F166,F167,F169)</f>
+        <v>0.88799400171552623</v>
+      </c>
+      <c r="J167">
+        <f>AVERAGE(G162,G163,G164,G166,G167,G169)</f>
+        <v>0.97014913940691139</v>
+      </c>
+      <c r="K167" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>607787062</v>
       </c>
@@ -4022,15 +4725,26 @@
         <v>401404427</v>
       </c>
       <c r="F168">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.95970262196861311</v>
       </c>
       <c r="G168">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.98700351271020292</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <f>AVERAGE(F160,F161,F165,F168,F170)</f>
+        <v>0.94375971185450336</v>
+      </c>
+      <c r="J168">
+        <f>AVERAGE(G160,G161,G165,G168,G170)</f>
+        <v>0.97115573349133366</v>
+      </c>
+      <c r="K168" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>711411552</v>
       </c>
@@ -4044,15 +4758,15 @@
         <v>337063136</v>
       </c>
       <c r="F169">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.92464076546229601</v>
       </c>
       <c r="G169">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.98739582182655328</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>125439069</v>
       </c>
@@ -4066,11 +4780,11 @@
         <v>36804110</v>
       </c>
       <c r="F170">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.91205124457675946</v>
       </c>
       <c r="G170">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.90503184298939554</v>
       </c>
       <c r="I170">
@@ -4082,12 +4796,12 @@
         <v>0.97060668217255774</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>71855639</v>
       </c>
@@ -4101,15 +4815,15 @@
         <v>31072668</v>
       </c>
       <c r="F173">
-        <f t="shared" ref="F173:F183" si="14">C173/A173</f>
+        <f t="shared" ref="F173:F183" si="19">C173/A173</f>
         <v>0.949258109026071</v>
       </c>
       <c r="G173">
-        <f t="shared" ref="G173:G183" si="15">D173/B173</f>
+        <f t="shared" ref="G173:G183" si="20">D173/B173</f>
         <v>0.93043952261142215</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>356976764</v>
       </c>
@@ -4123,15 +4837,15 @@
         <v>135138091</v>
       </c>
       <c r="F174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.35389059664398775</v>
       </c>
       <c r="G174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.78325702159209409</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1785763181</v>
       </c>
@@ -4145,15 +4859,15 @@
         <v>1360816849</v>
       </c>
       <c r="F175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.98313592120141269</v>
       </c>
       <c r="G175">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.99212844264161215</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>354122019</v>
       </c>
@@ -4167,15 +4881,15 @@
         <v>182350515</v>
       </c>
       <c r="F176">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.97746049222655085</v>
       </c>
       <c r="G176">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.98512211041635578</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>852779625</v>
       </c>
@@ -4189,15 +4903,15 @@
         <v>335432530</v>
       </c>
       <c r="F177">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.98673282561130604</v>
       </c>
       <c r="G177">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.99875332300407726</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>199921067</v>
       </c>
@@ -4211,15 +4925,15 @@
         <v>84820005</v>
       </c>
       <c r="F178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.9250617845091833</v>
       </c>
       <c r="G178">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.98678319052976715</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>224893587</v>
       </c>
@@ -4233,15 +4947,15 @@
         <v>97454847</v>
       </c>
       <c r="F179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.98315404164903997</v>
       </c>
       <c r="G179">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.95860732860117337</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>500840583</v>
       </c>
@@ -4255,15 +4969,26 @@
         <v>251902994</v>
       </c>
       <c r="F180">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.95466023167695258</v>
       </c>
       <c r="G180">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.98700720954549936</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <f>AVERAGE(F175,F176,F177,F179,F180,F182)</f>
+        <v>0.97096736603514844</v>
+      </c>
+      <c r="J180">
+        <f>AVERAGE(G175,G176,G177,G179,G180,G182)</f>
+        <v>0.97622153244247245</v>
+      </c>
+      <c r="K180" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>607787062</v>
       </c>
@@ -4277,15 +5002,26 @@
         <v>403718999</v>
       </c>
       <c r="F181">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99930048691954554</v>
       </c>
       <c r="G181">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.99269475710303234</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <f>AVERAGE(F173,F174,F178,F181,F183)</f>
+        <v>0.82264802388568781</v>
+      </c>
+      <c r="J181">
+        <f>AVERAGE(G173,G174,G178,G181,G183)</f>
+        <v>0.91230109802735337</v>
+      </c>
+      <c r="K181" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>711411552</v>
       </c>
@@ -4299,15 +5035,15 @@
         <v>319419632</v>
       </c>
       <c r="F182">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.94066068384562862</v>
       </c>
       <c r="G182">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.93571078044611566</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>125439069</v>
       </c>
@@ -4321,11 +5057,11 @@
         <v>35311630</v>
       </c>
       <c r="F183">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.88572914232965172</v>
       </c>
       <c r="G183">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.86833099830045146</v>
       </c>
       <c r="I183">
@@ -4337,12 +5073,12 @@
         <v>0.94716678952650923</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>71855639</v>
       </c>
@@ -4356,15 +5092,15 @@
         <v>31073136</v>
       </c>
       <c r="F186">
-        <f t="shared" ref="F186:F196" si="16">C186/A186</f>
+        <f t="shared" ref="F186:F196" si="21">C186/A186</f>
         <v>0.94925639726062416</v>
       </c>
       <c r="G186">
-        <f t="shared" ref="G186:G196" si="17">D186/B186</f>
+        <f t="shared" ref="G186:G196" si="22">D186/B186</f>
         <v>0.93045353639667494</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>356976764</v>
       </c>
@@ -4378,15 +5114,15 @@
         <v>135138099</v>
       </c>
       <c r="F187">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.35316065277570841</v>
       </c>
       <c r="G187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.78325706795989558</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1785763181</v>
       </c>
@@ -4400,15 +5136,15 @@
         <v>1360823828</v>
       </c>
       <c r="F188">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.98310149446406359</v>
       </c>
       <c r="G188">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.99213353080935951</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>354122019</v>
       </c>
@@ -4422,15 +5158,15 @@
         <v>182446763</v>
       </c>
       <c r="F189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.97715127112725519</v>
       </c>
       <c r="G189">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.98564207622442246</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>852779625</v>
       </c>
@@ -4444,15 +5180,15 @@
         <v>335288023</v>
       </c>
       <c r="F190">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.98603956678725757</v>
       </c>
       <c r="G190">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.99832305213426231</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>199921067</v>
       </c>
@@ -4466,15 +5202,15 @@
         <v>84818192</v>
       </c>
       <c r="F191">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.92498132775571873</v>
       </c>
       <c r="G191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.98676209836024376</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>224893587</v>
       </c>
@@ -4488,15 +5224,15 @@
         <v>97435227</v>
       </c>
       <c r="F192">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.98298497057632861</v>
       </c>
       <c r="G192">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.95841433793558695</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>500840583</v>
       </c>
@@ -4510,15 +5246,26 @@
         <v>251889101</v>
       </c>
       <c r="F193">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.95472408832332978</v>
       </c>
       <c r="G193">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.98695277394334757</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <f>AVERAGE(F188,F189,F190,F192,F193,F195)</f>
+        <v>0.97069396003178021</v>
+      </c>
+      <c r="J193">
+        <f>AVERAGE(G188,G189,G190,G192,G193,G195)</f>
+        <v>0.97615703117441999</v>
+      </c>
+      <c r="K193" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>607787062</v>
       </c>
@@ -4532,15 +5279,26 @@
         <v>403579136</v>
       </c>
       <c r="F194">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.99915170783941432</v>
       </c>
       <c r="G194">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.99235085139842938</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <f>AVERAGE(F186,F187,F191,F194,F196)</f>
+        <v>0.82245374895676471</v>
+      </c>
+      <c r="J194">
+        <f>AVERAGE(G186,G187,G191,G194,G196)</f>
+        <v>0.91223316297387491</v>
+      </c>
+      <c r="K194" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>711411552</v>
       </c>
@@ -4554,15 +5312,15 @@
         <v>319339628</v>
       </c>
       <c r="F195">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.94016236891244631</v>
       </c>
       <c r="G195">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.9354764159995409</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>125439069</v>
       </c>
@@ -4576,11 +5334,11 @@
         <v>35312088</v>
       </c>
       <c r="F196">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.88571865915235704</v>
       </c>
       <c r="G196">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.8683422607541309</v>
       </c>
       <c r="I196">
@@ -4592,12 +5350,12 @@
         <v>0.94710072744689944</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>71855639</v>
       </c>
@@ -4611,15 +5369,15 @@
         <v>28054376</v>
       </c>
       <c r="F199">
-        <f t="shared" ref="F199:F209" si="18">C199/A199</f>
+        <f t="shared" ref="F199:F209" si="23">C199/A199</f>
         <v>0.76623329450873023</v>
       </c>
       <c r="G199">
-        <f t="shared" ref="G199:G209" si="19">D199/B199</f>
+        <f t="shared" ref="G199:G209" si="24">D199/B199</f>
         <v>0.84005983047871335</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>356976764</v>
       </c>
@@ -4633,15 +5391,15 @@
         <v>135349367</v>
       </c>
       <c r="F200">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.6696756879111605</v>
       </c>
       <c r="G200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.78448157204466706</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1785763181</v>
       </c>
@@ -4655,15 +5413,15 @@
         <v>1292717700</v>
       </c>
       <c r="F201">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.82946366335682675</v>
       </c>
       <c r="G201">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.94247951105156158</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>354122019</v>
       </c>
@@ -4677,15 +5435,15 @@
         <v>163489275</v>
       </c>
       <c r="F202">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.69727212867833555</v>
       </c>
       <c r="G202">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.88322700716496438</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>852779625</v>
       </c>
@@ -4699,15 +5457,15 @@
         <v>273541092</v>
       </c>
       <c r="F203">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.54608219561999971</v>
       </c>
       <c r="G203">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.81447101929310195</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>199921067</v>
       </c>
@@ -4721,15 +5479,15 @@
         <v>75456375</v>
       </c>
       <c r="F204">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.67175364265137705</v>
       </c>
       <c r="G204">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.87784812637432119</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>224893587</v>
       </c>
@@ -4743,15 +5501,15 @@
         <v>74024314</v>
       </c>
       <c r="F205">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.53467888348456993</v>
       </c>
       <c r="G205">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.72813463957389868</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>500840583</v>
       </c>
@@ -4765,15 +5523,26 @@
         <v>187045143</v>
       </c>
       <c r="F206">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.5845823640054344</v>
       </c>
       <c r="G206">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.73288094643078705</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I206">
+        <f>AVERAGE(F201,F202,F203,F205,F206,F208)</f>
+        <v>0.64687661406375263</v>
+      </c>
+      <c r="J206">
+        <f>AVERAGE(G201,G202,G203,G205,G206,G208)</f>
+        <v>0.82614559532017928</v>
+      </c>
+      <c r="K206" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>607787062</v>
       </c>
@@ -4787,15 +5556,26 @@
         <v>336783161</v>
       </c>
       <c r="F207">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.84812887313484797</v>
       </c>
       <c r="G207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.82810786471133213</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I207">
+        <f>AVERAGE(F199,F200,F204,F207,F209)</f>
+        <v>0.69409749476551097</v>
+      </c>
+      <c r="J207">
+        <f>AVERAGE(G199,G200,G204,G207,G209)</f>
+        <v>0.79499919060463475</v>
+      </c>
+      <c r="K207" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>711411552</v>
       </c>
@@ -4809,15 +5589,15 @@
         <v>292100016</v>
       </c>
       <c r="F208">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.68918044923734945</v>
       </c>
       <c r="G208">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.85568044840676194</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>125439069</v>
       </c>
@@ -4831,11 +5611,11 @@
         <v>26209239</v>
       </c>
       <c r="F209">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.51469597562143898</v>
       </c>
       <c r="G209">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.64449855941413992</v>
       </c>
       <c r="I209">
@@ -4847,12 +5627,12 @@
         <v>0.81198813863129538</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>71855639</v>
       </c>
@@ -4866,15 +5646,15 @@
         <v>31071923</v>
       </c>
       <c r="F212">
-        <f t="shared" ref="F212:F222" si="20">C212/A212</f>
+        <f t="shared" ref="F212:F222" si="25">C212/A212</f>
         <v>0.94922671274275361</v>
       </c>
       <c r="G212">
-        <f t="shared" ref="G212:G222" si="21">D212/B212</f>
+        <f t="shared" ref="G212:G222" si="26">D212/B212</f>
         <v>0.93041721434216296</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>356976764</v>
       </c>
@@ -4888,15 +5668,15 @@
         <v>135129866</v>
       </c>
       <c r="F213">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.35351642102957714</v>
       </c>
       <c r="G213">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.78320934969622136</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1785763181</v>
       </c>
@@ -4910,15 +5690,15 @@
         <v>1360818096</v>
       </c>
       <c r="F214">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.98310957392283693</v>
       </c>
       <c r="G214">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.99212935178979678</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>354122019</v>
       </c>
@@ -4932,15 +5712,15 @@
         <v>181967086</v>
       </c>
       <c r="F215">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.97675510259643017</v>
       </c>
       <c r="G215">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.98305069106404497</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>852779625</v>
       </c>
@@ -4954,15 +5734,15 @@
         <v>335402884</v>
       </c>
       <c r="F216">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.98658039232586026</v>
       </c>
       <c r="G216">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.99866505177703269</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>199921067</v>
       </c>
@@ -4976,15 +5756,15 @@
         <v>84818719</v>
       </c>
       <c r="F217">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.92494095682272448</v>
       </c>
       <c r="G217">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.98676822939904074</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>224893587</v>
       </c>
@@ -4998,15 +5778,15 @@
         <v>97425253</v>
       </c>
       <c r="F218">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.98296716215389457</v>
       </c>
       <c r="G218">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.95831622942903449</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>500840583</v>
       </c>
@@ -5020,15 +5800,26 @@
         <v>251897263</v>
       </c>
       <c r="F219">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.9545131229910736</v>
       </c>
       <c r="G219">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.98698475432085875</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I219">
+        <f>AVERAGE(F214,F215,F216,F218,F219,F221)</f>
+        <v>0.97083944548556778</v>
+      </c>
+      <c r="J219">
+        <f>AVERAGE(G214,G215,G216,G218,G219,G221)</f>
+        <v>0.97581822319852007</v>
+      </c>
+      <c r="K219" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>607787062</v>
       </c>
@@ -5042,15 +5833,26 @@
         <v>403684831</v>
       </c>
       <c r="F220">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.99925438689249357</v>
       </c>
       <c r="G220">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.99261074224481483</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I220">
+        <f>AVERAGE(F212,F213,F217,F220,F222)</f>
+        <v>0.82253473889592654</v>
+      </c>
+      <c r="J220">
+        <f>AVERAGE(G212,G213,G217,G220,G222)</f>
+        <v>0.9122691166580903</v>
+      </c>
+      <c r="K220" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>711411552</v>
       </c>
@@ -5064,15 +5866,15 @@
         <v>319437547</v>
       </c>
       <c r="F221">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.94111131892331146</v>
       </c>
       <c r="G221">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.93576326081035233</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>125439069</v>
       </c>
@@ -5086,11 +5888,11 @@
         <v>35311998</v>
       </c>
       <c r="F222">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.88573521699208402</v>
       </c>
       <c r="G222">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.86834004760821137</v>
       </c>
       <c r="I222">
@@ -5102,12 +5904,12 @@
         <v>0.94693226568014277</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>71855639</v>
       </c>
@@ -5121,15 +5923,15 @@
         <v>31073187</v>
       </c>
       <c r="F225">
-        <f t="shared" ref="F225:F235" si="22">C225/A225</f>
+        <f t="shared" ref="F225:F235" si="27">C225/A225</f>
         <v>0.94924776884942874</v>
       </c>
       <c r="G225">
-        <f t="shared" ref="G225:G235" si="23">D225/B225</f>
+        <f t="shared" ref="G225:G235" si="28">D225/B225</f>
         <v>0.93045506353993968</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>356976764</v>
       </c>
@@ -5143,15 +5945,15 @@
         <v>135139695</v>
       </c>
       <c r="F226">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.35392580341727786</v>
       </c>
       <c r="G226">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.78326631833628624</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1785763181</v>
       </c>
@@ -5165,15 +5967,15 @@
         <v>1360816656</v>
       </c>
       <c r="F227">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.98312290827772419</v>
       </c>
       <c r="G227">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.99212830193142798</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>354122019</v>
       </c>
@@ -5187,15 +5989,15 @@
         <v>182015442</v>
       </c>
       <c r="F228">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.97767285970432694</v>
       </c>
       <c r="G228">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.98331192731430339</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>852779625</v>
       </c>
@@ -5209,15 +6011,15 @@
         <v>335049908</v>
       </c>
       <c r="F229">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.98422138427615458</v>
       </c>
       <c r="G229">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.99761406261703467</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>199921067</v>
       </c>
@@ -5231,15 +6033,15 @@
         <v>84818363</v>
       </c>
       <c r="F230">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.92493736040334362</v>
       </c>
       <c r="G230">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.98676408774854407</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>224893587</v>
       </c>
@@ -5253,15 +6055,15 @@
         <v>97418117</v>
       </c>
       <c r="F231">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.9828625749119293</v>
       </c>
       <c r="G231">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.95824603669765707</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>500840583</v>
       </c>
@@ -5275,15 +6077,26 @@
         <v>251884007</v>
       </c>
       <c r="F232">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.95431720036952361</v>
       </c>
       <c r="G232">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.98693281461437898</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I232">
+        <f>AVERAGE(F227,F228,F229,F231,F232,F234)</f>
+        <v>0.97057117424828743</v>
+      </c>
+      <c r="J232">
+        <f>AVERAGE(G227,G228,G229,G231,G232,G234)</f>
+        <v>0.97562634112566016</v>
+      </c>
+      <c r="K232" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>607787062</v>
       </c>
@@ -5297,15 +6110,26 @@
         <v>403734975</v>
       </c>
       <c r="F233">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.99929379872189517</v>
       </c>
       <c r="G233">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.99273404009808275</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I233">
+        <f>AVERAGE(F225,F226,F230,F233,F235)</f>
+        <v>0.8226151292497248</v>
+      </c>
+      <c r="J233">
+        <f>AVERAGE(G225,G226,G230,G233,G235)</f>
+        <v>0.91230863109214977</v>
+      </c>
+      <c r="K233" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>711411552</v>
       </c>
@@ -5319,15 +6143,15 @@
         <v>319356180</v>
       </c>
       <c r="F234">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.94123011795006672</v>
       </c>
       <c r="G234">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.93552490357915818</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>125439069</v>
       </c>
@@ -5341,11 +6165,11 @@
         <v>35311331</v>
       </c>
       <c r="F235">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.88567091485667837</v>
       </c>
       <c r="G235">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.86832364573789655</v>
       </c>
       <c r="I235">
@@ -5357,12 +6181,12 @@
         <v>0.94684556383770113</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>71855639</v>
       </c>
@@ -5376,15 +6200,15 @@
         <v>31075075</v>
       </c>
       <c r="F238">
-        <f t="shared" ref="F238:F248" si="24">C238/A238</f>
+        <f t="shared" ref="F238:F248" si="29">C238/A238</f>
         <v>0.94932219585438515</v>
       </c>
       <c r="G238">
-        <f t="shared" ref="G238:G248" si="25">D238/B238</f>
+        <f t="shared" ref="G238:G248" si="30">D238/B238</f>
         <v>0.93051159778472003</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>356976764</v>
       </c>
@@ -5398,15 +6222,15 @@
         <v>135371804</v>
       </c>
       <c r="F239">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.3553861281570696</v>
       </c>
       <c r="G239">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.78461161633982779</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1785763181</v>
       </c>
@@ -5420,15 +6244,15 @@
         <v>1360807656</v>
       </c>
       <c r="F240">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.98304630573520602</v>
       </c>
       <c r="G240">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.99212174031662259</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>354122019</v>
       </c>
@@ -5442,15 +6266,15 @@
         <v>182588286</v>
       </c>
       <c r="F241">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.97778614833888655</v>
       </c>
       <c r="G241">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.98640663362878434</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>852779625</v>
       </c>
@@ -5464,15 +6288,15 @@
         <v>334613962</v>
       </c>
       <c r="F242">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.98511763340968661</v>
       </c>
       <c r="G242">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.99631602954865484</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>199921067</v>
       </c>
@@ -5486,15 +6310,15 @@
         <v>84818531</v>
       </c>
       <c r="F243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.92504362734318535</v>
       </c>
       <c r="G243">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.98676604223529529</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>224893587</v>
       </c>
@@ -5508,15 +6332,15 @@
         <v>97370651</v>
       </c>
       <c r="F244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.98254148972242594</v>
       </c>
       <c r="G244">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.9577791409314631</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>500840583</v>
       </c>
@@ -5530,15 +6354,26 @@
         <v>251893094</v>
       </c>
       <c r="F245">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.95474048276155765</v>
       </c>
       <c r="G245">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.98696841933018931</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I245">
+        <f>AVERAGE(F240,F241,F242,F244,F245,F247)</f>
+        <v>0.97060654785792755</v>
+      </c>
+      <c r="J245">
+        <f>AVERAGE(G240,G241,G242,G244,G245,G247)</f>
+        <v>0.97584166042669496</v>
+      </c>
+      <c r="K245" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>607787062</v>
       </c>
@@ -5552,15 +6387,26 @@
         <v>403529457</v>
       </c>
       <c r="F246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.9948834580489968</v>
       </c>
       <c r="G246">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.99222869692227078</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I246">
+        <f>AVERAGE(F238,F239,F243,F246,F248)</f>
+        <v>0.82207268234751663</v>
+      </c>
+      <c r="J246">
+        <f>AVERAGE(G238,G239,G243,G246,G248)</f>
+        <v>0.91249165919528963</v>
+      </c>
+      <c r="K246" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>711411552</v>
       </c>
@@ -5574,15 +6420,15 @@
         <v>319333341</v>
       </c>
       <c r="F247">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.94040722717980263</v>
       </c>
       <c r="G247">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.93545799880445546</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>125439069</v>
       </c>
@@ -5596,11 +6442,11 @@
         <v>35312010</v>
       </c>
       <c r="F248">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.88572800233394589</v>
       </c>
       <c r="G248">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.86834034269433402</v>
       </c>
       <c r="I248">
